--- a/public/templates/kyotaku_kaigo_keikaku.xlsx
+++ b/public/templates/kyotaku_kaigo_keikaku.xlsx
@@ -8,9 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="居宅介護計画書（表）" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="居宅介護計画書（裏）" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="居宅介護計画【記載例】" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="居宅介護計画【記載例】" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30,79 +29,97 @@
     </font>
     <font>
       <name val="ＭＳ Ｐゴシック"/>
+      <color rgb="00000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="ＭＳ Ｐゴシック"/>
       <b val="1"/>
+      <color rgb="00000000"/>
       <sz val="24"/>
     </font>
     <font>
       <name val="ＭＳ Ｐゴシック"/>
       <b val="1"/>
+      <color rgb="00000000"/>
       <sz val="22"/>
     </font>
     <font>
       <name val="ＭＳ Ｐゴシック"/>
+      <color rgb="00000000"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="ＭＳ Ｐゴシック"/>
+      <color rgb="00000000"/>
       <sz val="14"/>
     </font>
     <font>
       <name val="ＭＳ Ｐゴシック"/>
+      <color rgb="00000000"/>
       <sz val="16"/>
     </font>
     <font>
       <name val="ＭＳ Ｐゴシック"/>
       <b val="1"/>
+      <color rgb="00000000"/>
       <sz val="20"/>
     </font>
     <font>
       <name val="ＭＳ Ｐゴシック"/>
       <b val="1"/>
+      <color rgb="00000000"/>
       <sz val="14"/>
     </font>
     <font>
       <name val="ＭＳ Ｐゴシック"/>
+      <color rgb="00000000"/>
       <sz val="20"/>
     </font>
     <font>
       <name val="ＭＳ Ｐ明朝"/>
+      <color rgb="00000000"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="ＭＳ Ｐ明朝"/>
+      <color rgb="00000000"/>
       <sz val="14"/>
     </font>
     <font>
       <name val="HG正楷書体-PRO"/>
+      <color rgb="00000000"/>
       <sz val="18"/>
     </font>
     <font>
       <name val="HG正楷書体-PRO"/>
+      <color rgb="00000000"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="HG正楷書体-PRO"/>
+      <color rgb="00000000"/>
       <sz val="14"/>
     </font>
     <font>
       <name val="ＭＳ Ｐ明朝"/>
       <b val="1"/>
+      <color rgb="00000000"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="HG正楷書体-PRO"/>
+      <color rgb="00000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="ＭＳ Ｐゴシック"/>
+      <color rgb="00000000"/>
       <sz val="18"/>
     </font>
     <font>
       <name val="ＭＳ 明朝"/>
+      <color rgb="00000000"/>
       <sz val="18"/>
     </font>
   </fonts>
@@ -569,6 +586,150 @@
     <border>
       <left style="medium"/>
       <right style="thin"/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="hair"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="hair"/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
       <top style="medium"/>
       <bottom style="medium"/>
     </border>
@@ -597,58 +758,52 @@
       <bottom style="medium"/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="medium"/>
-      <top style="thin"/>
+      <top style="medium"/>
       <bottom style="medium"/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium"/>
-      <top style="thin"/>
+      <right/>
+      <top style="medium"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="hair"/>
-      <bottom style="medium"/>
     </border>
     <border>
       <left/>
@@ -659,6 +814,40 @@
     </border>
     <border>
       <left/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
       <right style="medium"/>
       <top style="hair"/>
       <bottom/>
@@ -666,57 +855,10 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="hair"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium"/>
       <top style="hair"/>
-      <bottom style="medium"/>
+      <bottom style="thin"/>
       <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium"/>
-      <bottom style="dotted"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="dotted"/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="dotted"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
     </border>
     <border>
       <left style="medium"/>
@@ -727,6 +869,176 @@
     </border>
     <border>
       <left style="medium"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
       <right/>
       <top/>
       <bottom style="medium"/>
@@ -741,6 +1053,87 @@
     </border>
     <border>
       <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin"/>
       <bottom style="medium"/>
@@ -751,27 +1144,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -799,47 +1171,6 @@
       <left/>
       <right style="medium"/>
       <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium"/>
-      <top style="medium"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -847,335 +1178,40 @@
       <left style="thin"/>
       <right style="medium"/>
       <top style="thin"/>
-      <bottom style="thin"/>
+      <bottom style="medium"/>
     </border>
     <border>
       <left/>
       <right style="medium"/>
       <top style="thin"/>
-      <bottom style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
       <right style="thin"/>
       <top style="medium"/>
-      <bottom style="medium"/>
+      <bottom style="dotted"/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="dotted"/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left/>
+      <left style="medium"/>
       <right/>
       <top style="medium"/>
       <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="dotted"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="dotted"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="dotted"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="hair"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="hair"/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="hair"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="hair"/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top style="hair"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium"/>
-      <top style="hair"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="hair"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium"/>
-      <top style="hair"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1496,29 +1532,59 @@
       <bottom/>
     </border>
     <border>
-      <left/>
-      <right style="thin"/>
-      <top style="hair"/>
+      <left style="thin"/>
+      <right/>
+      <top/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
+      <top style="thin"/>
+      <bottom style="double"/>
+    </border>
+    <border>
+      <left style="thin"/>
       <right style="thin"/>
-      <top style="hair"/>
+      <top/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1531,14 +1597,96 @@
       <left/>
       <right style="hair"/>
       <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double"/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="dotted"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="double"/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom style="double"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="double"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -1548,147 +1696,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="double"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="hair"/>
       <right style="hair"/>
       <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
+      <bottom style="thin"/>
     </border>
     <border>
       <left/>
       <right style="hair"/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair"/>
-      <top style="medium"/>
+      <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="double"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="double"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="hair"/>
-      <bottom style="double"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="double"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="dotted"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double"/>
-      <bottom style="double"/>
       <diagonal/>
     </border>
   </borders>
@@ -1712,7 +1729,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1725,35 +1742,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="93" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="166" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="120" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="140" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="124" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="146" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="124" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="146" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="144" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="145" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="147" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1775,78 +1792,78 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="148" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="110" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="124" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="111" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="159" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="161" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="150" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="151" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="110" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="124" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="150" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="168" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="114" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="155" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="156" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="153" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="78" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="157" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="158" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="163" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -2048,15 +2065,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="73" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="117" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2066,450 +2074,460 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="150" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="162" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="128" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="131" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="157" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="158" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="159" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="134" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="135" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="161" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="124" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="124" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="138" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="89" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="92" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="97" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="105" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="97" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="105" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="140" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="234" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="235" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="146" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="173" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="150" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="97" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="105" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="105" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="239" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="175" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="176" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="178" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="241" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="178" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="179" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="180" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="246" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="247" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="246" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="183" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="184" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="242" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="243" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="236" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="222" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="227" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="237" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="225" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="128" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="189" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="190" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="191" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="190" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="192" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="193" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="194" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="238" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="245" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="226" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="198" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="199" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="244" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="201" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="233" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="202" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="93" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="203" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="190" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="186" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="188" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="188" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="204" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="205" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="206" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="207" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="208" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="89" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="209" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="75" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="210" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="224" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="183" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="211" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="212" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="213" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="216" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="231" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="216" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="217" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="229" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="75" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="76" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="128" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="239" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="135" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="110" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="134" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="218" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="110" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="135" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="136" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="155" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="156" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="140" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="205" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="141" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="141" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="142" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="141" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="144" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="145" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="147" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="151" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="117" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="120" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="244" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="245" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="124" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="170" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="117" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="117" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="143" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="236" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="172" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="173" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="175" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="235" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="175" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="176" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="147" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="177" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="222" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="224" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="222" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="180" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="181" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="241" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="242" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="239" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="228" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="237" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="240" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="225" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="162" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="143" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="132" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="135" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="186" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="187" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="188" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="187" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="189" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="190" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="191" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="227" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="226" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="238" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="195" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="196" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="243" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="198" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="247" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="199" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="146" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="200" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="141" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="187" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="183" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="185" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="185" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="201" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="202" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="203" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="204" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="137" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="205" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="139" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="142" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="141" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="206" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="129" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="207" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="232" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="180" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="208" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="209" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="210" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="213" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="233" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="213" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="214" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="148" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="230" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="128" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="77" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="129" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="130" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="162" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="236" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="215" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="202" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="131" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="135" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2521,7 +2539,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="110" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="124" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2530,28 +2548,27 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="134" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="182" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="185" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="135" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="220" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="138" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="221" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="163" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="144" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="229" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="228" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2920,7 +2937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z70"/>
+  <dimension ref="A1:Z126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3197,7 +3214,7 @@
       <c r="Y7" s="1" t="n"/>
       <c r="Z7" s="1" t="n"/>
     </row>
-    <row r="8" ht="26.25" customHeight="1">
+    <row r="8" ht="57" customHeight="1">
       <c r="A8" s="32" t="inlineStr">
         <is>
           <t>本人(家族)の希望</t>
@@ -3229,7 +3246,7 @@
       <c r="Y8" s="1" t="n"/>
       <c r="Z8" s="1" t="n"/>
     </row>
-    <row r="9" ht="26.25" customHeight="1">
+    <row r="9" ht="65" customHeight="1">
       <c r="A9" s="38" t="n"/>
       <c r="D9" s="39" t="n"/>
       <c r="E9" s="40" t="n"/>
@@ -3255,7 +3272,7 @@
       <c r="Y9" s="1" t="n"/>
       <c r="Z9" s="1" t="n"/>
     </row>
-    <row r="10" ht="26.25" customHeight="1">
+    <row r="10" ht="62" customHeight="1">
       <c r="A10" s="43" t="n"/>
       <c r="B10" s="44" t="n"/>
       <c r="C10" s="44" t="n"/>
@@ -3308,7 +3325,7 @@
       <c r="Y11" s="1" t="n"/>
       <c r="Z11" s="1" t="n"/>
     </row>
-    <row r="12" ht="26.25" customHeight="1">
+    <row r="12" ht="66" customHeight="1">
       <c r="A12" s="32" t="inlineStr">
         <is>
           <t>援　助　目　標</t>
@@ -3340,7 +3357,7 @@
       <c r="Y12" s="1" t="n"/>
       <c r="Z12" s="1" t="n"/>
     </row>
-    <row r="13" ht="26.25" customHeight="1">
+    <row r="13" ht="66" customHeight="1">
       <c r="A13" s="38" t="n"/>
       <c r="D13" s="39" t="n"/>
       <c r="E13" s="51" t="n"/>
@@ -3366,7 +3383,7 @@
       <c r="Y13" s="1" t="n"/>
       <c r="Z13" s="1" t="n"/>
     </row>
-    <row r="14" ht="26.25" customHeight="1">
+    <row r="14" ht="70" customHeight="1">
       <c r="A14" s="43" t="n"/>
       <c r="B14" s="44" t="n"/>
       <c r="C14" s="44" t="n"/>
@@ -5048,19 +5065,11 @@
       <c r="D70" s="27" t="n"/>
       <c r="E70" s="27" t="n"/>
       <c r="F70" s="60" t="n"/>
-      <c r="G70" s="138" t="inlineStr">
-        <is>
-          <t>利用者確認印</t>
-        </is>
-      </c>
-      <c r="H70" s="139" t="n"/>
-      <c r="I70" s="140" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　　　　　　　　　　　　㊞</t>
-        </is>
-      </c>
-      <c r="J70" s="141" t="n"/>
-      <c r="K70" s="142" t="n"/>
+      <c r="G70" s="60" t="n"/>
+      <c r="H70" s="60" t="n"/>
+      <c r="I70" s="60" t="n"/>
+      <c r="J70" s="60" t="n"/>
+      <c r="K70" s="60" t="n"/>
       <c r="L70" s="1" t="n"/>
       <c r="M70" s="1" t="n"/>
       <c r="N70" s="1" t="n"/>
@@ -5077,47 +5086,1973 @@
       <c r="Y70" s="1" t="n"/>
       <c r="Z70" s="1" t="n"/>
     </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n"/>
+      <c r="C71" s="1" t="n"/>
+      <c r="D71" s="1" t="n"/>
+      <c r="E71" s="1" t="n"/>
+      <c r="F71" s="1" t="n"/>
+      <c r="G71" s="1" t="n"/>
+      <c r="H71" s="1" t="n"/>
+      <c r="I71" s="1" t="n"/>
+      <c r="J71" s="1" t="n"/>
+      <c r="K71" s="1" t="n"/>
+      <c r="L71" s="1" t="n"/>
+      <c r="M71" s="1" t="n"/>
+      <c r="N71" s="1" t="n"/>
+      <c r="O71" s="1" t="n"/>
+      <c r="P71" s="1" t="n"/>
+      <c r="Q71" s="1" t="n"/>
+      <c r="R71" s="1" t="n"/>
+      <c r="S71" s="1" t="n"/>
+      <c r="T71" s="1" t="n"/>
+      <c r="U71" s="1" t="n"/>
+      <c r="V71" s="1" t="n"/>
+      <c r="W71" s="1" t="n"/>
+      <c r="X71" s="1" t="n"/>
+      <c r="Y71" s="1" t="n"/>
+      <c r="Z71" s="1" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="n"/>
+      <c r="C72" s="1" t="n"/>
+      <c r="D72" s="1" t="n"/>
+      <c r="E72" s="1" t="n"/>
+      <c r="F72" s="1" t="n"/>
+      <c r="G72" s="1" t="n"/>
+      <c r="H72" s="1" t="n"/>
+      <c r="I72" s="1" t="n"/>
+      <c r="J72" s="1" t="n"/>
+      <c r="K72" s="1" t="n"/>
+      <c r="L72" s="1" t="n"/>
+      <c r="M72" s="1" t="n"/>
+      <c r="N72" s="1" t="n"/>
+      <c r="O72" s="1" t="n"/>
+      <c r="P72" s="1" t="n"/>
+      <c r="Q72" s="1" t="n"/>
+      <c r="R72" s="1" t="n"/>
+      <c r="S72" s="1" t="n"/>
+      <c r="T72" s="1" t="n"/>
+      <c r="U72" s="1" t="n"/>
+      <c r="V72" s="1" t="n"/>
+      <c r="W72" s="1" t="n"/>
+      <c r="X72" s="1" t="n"/>
+      <c r="Y72" s="1" t="n"/>
+      <c r="Z72" s="1" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="n"/>
+      <c r="D73" s="1" t="n"/>
+      <c r="E73" s="1" t="n"/>
+      <c r="F73" s="1" t="n"/>
+      <c r="G73" s="1" t="n"/>
+      <c r="H73" s="1" t="n"/>
+      <c r="I73" s="1" t="n"/>
+      <c r="J73" s="1" t="n"/>
+      <c r="K73" s="1" t="n"/>
+      <c r="L73" s="1" t="n"/>
+      <c r="M73" s="1" t="n"/>
+      <c r="N73" s="1" t="n"/>
+      <c r="O73" s="1" t="n"/>
+      <c r="P73" s="1" t="n"/>
+      <c r="Q73" s="1" t="n"/>
+      <c r="R73" s="1" t="n"/>
+      <c r="S73" s="1" t="n"/>
+      <c r="T73" s="1" t="n"/>
+      <c r="U73" s="1" t="n"/>
+      <c r="V73" s="1" t="n"/>
+      <c r="W73" s="1" t="n"/>
+      <c r="X73" s="1" t="n"/>
+      <c r="Y73" s="1" t="n"/>
+      <c r="Z73" s="1" t="n"/>
+    </row>
+    <row r="74" ht="25" customHeight="1">
+      <c r="A74" s="71" t="inlineStr">
+        <is>
+          <t>【サービス内容】</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="n"/>
+      <c r="F74" s="1" t="n"/>
+      <c r="G74" s="1" t="n"/>
+      <c r="H74" s="1" t="n"/>
+      <c r="I74" s="1" t="n"/>
+      <c r="J74" s="1" t="n"/>
+      <c r="K74" s="1" t="n"/>
+      <c r="L74" s="1" t="n"/>
+      <c r="M74" s="1" t="n"/>
+      <c r="N74" s="1" t="n"/>
+      <c r="O74" s="1" t="n"/>
+      <c r="P74" s="1" t="n"/>
+      <c r="Q74" s="1" t="n"/>
+      <c r="R74" s="1" t="n"/>
+      <c r="S74" s="1" t="n"/>
+      <c r="T74" s="1" t="n"/>
+      <c r="U74" s="1" t="n"/>
+      <c r="V74" s="1" t="n"/>
+      <c r="W74" s="1" t="n"/>
+      <c r="X74" s="1" t="n"/>
+      <c r="Y74" s="1" t="n"/>
+      <c r="Z74" s="1" t="n"/>
+    </row>
+    <row r="75" ht="17" customHeight="1">
+      <c r="A75" s="138" t="inlineStr">
+        <is>
+          <t>サービス　1</t>
+        </is>
+      </c>
+      <c r="B75" s="139" t="inlineStr">
+        <is>
+          <t>援助項目</t>
+        </is>
+      </c>
+      <c r="C75" s="56" t="n"/>
+      <c r="D75" s="56" t="n"/>
+      <c r="E75" s="57" t="n"/>
+      <c r="F75" s="140" t="inlineStr">
+        <is>
+          <t>サービスの内容</t>
+        </is>
+      </c>
+      <c r="G75" s="56" t="n"/>
+      <c r="H75" s="56" t="n"/>
+      <c r="I75" s="57" t="n"/>
+      <c r="J75" s="139" t="inlineStr">
+        <is>
+          <t>留　意　事　項</t>
+        </is>
+      </c>
+      <c r="K75" s="56" t="n"/>
+      <c r="L75" s="57" t="n"/>
+      <c r="M75" s="1" t="n"/>
+      <c r="N75" s="1" t="n"/>
+      <c r="O75" s="1" t="n"/>
+      <c r="P75" s="1" t="n"/>
+      <c r="Q75" s="1" t="n"/>
+      <c r="R75" s="1" t="n"/>
+      <c r="S75" s="1" t="n"/>
+      <c r="T75" s="1" t="n"/>
+      <c r="U75" s="1" t="n"/>
+      <c r="V75" s="1" t="n"/>
+      <c r="W75" s="1" t="n"/>
+      <c r="X75" s="1" t="n"/>
+      <c r="Y75" s="1" t="n"/>
+      <c r="Z75" s="1" t="n"/>
+    </row>
+    <row r="76" ht="26" customHeight="1">
+      <c r="A76" s="141" t="n"/>
+      <c r="B76" s="142" t="n"/>
+      <c r="C76" s="143" t="n"/>
+      <c r="D76" s="143" t="n"/>
+      <c r="E76" s="144" t="n"/>
+      <c r="F76" s="145" t="n"/>
+      <c r="G76" s="146" t="n"/>
+      <c r="H76" s="146" t="n"/>
+      <c r="I76" s="147" t="n"/>
+      <c r="J76" s="148" t="n"/>
+      <c r="K76" s="143" t="n"/>
+      <c r="L76" s="149" t="n"/>
+      <c r="M76" s="1" t="n"/>
+      <c r="N76" s="1" t="n"/>
+      <c r="O76" s="1" t="n"/>
+      <c r="P76" s="1" t="n"/>
+      <c r="Q76" s="1" t="n"/>
+      <c r="R76" s="1" t="n"/>
+      <c r="S76" s="1" t="n"/>
+      <c r="T76" s="1" t="n"/>
+      <c r="U76" s="1" t="n"/>
+      <c r="V76" s="1" t="n"/>
+      <c r="W76" s="1" t="n"/>
+      <c r="X76" s="1" t="n"/>
+      <c r="Y76" s="1" t="n"/>
+      <c r="Z76" s="1" t="n"/>
+    </row>
+    <row r="77" ht="26" customHeight="1">
+      <c r="A77" s="141" t="n"/>
+      <c r="B77" s="150" t="n"/>
+      <c r="C77" s="41" t="n"/>
+      <c r="D77" s="41" t="n"/>
+      <c r="E77" s="151" t="n"/>
+      <c r="F77" s="150" t="n"/>
+      <c r="G77" s="41" t="n"/>
+      <c r="H77" s="41" t="n"/>
+      <c r="I77" s="151" t="n"/>
+      <c r="J77" s="152" t="n"/>
+      <c r="K77" s="41" t="n"/>
+      <c r="L77" s="42" t="n"/>
+      <c r="M77" s="1" t="n"/>
+      <c r="N77" s="1" t="n"/>
+      <c r="O77" s="1" t="n"/>
+      <c r="P77" s="1" t="n"/>
+      <c r="Q77" s="1" t="n"/>
+      <c r="R77" s="1" t="n"/>
+      <c r="S77" s="1" t="n"/>
+      <c r="T77" s="1" t="n"/>
+      <c r="U77" s="1" t="n"/>
+      <c r="V77" s="1" t="n"/>
+      <c r="W77" s="1" t="n"/>
+      <c r="X77" s="1" t="n"/>
+      <c r="Y77" s="1" t="n"/>
+      <c r="Z77" s="1" t="n"/>
+    </row>
+    <row r="78" ht="26" customHeight="1">
+      <c r="A78" s="141" t="n"/>
+      <c r="B78" s="150" t="n"/>
+      <c r="C78" s="41" t="n"/>
+      <c r="D78" s="41" t="n"/>
+      <c r="E78" s="151" t="n"/>
+      <c r="F78" s="150" t="n"/>
+      <c r="G78" s="41" t="n"/>
+      <c r="H78" s="41" t="n"/>
+      <c r="I78" s="151" t="n"/>
+      <c r="J78" s="152" t="n"/>
+      <c r="K78" s="41" t="n"/>
+      <c r="L78" s="42" t="n"/>
+      <c r="M78" s="1" t="n"/>
+      <c r="N78" s="1" t="n"/>
+      <c r="O78" s="1" t="n"/>
+      <c r="P78" s="1" t="n"/>
+      <c r="Q78" s="1" t="n"/>
+      <c r="R78" s="1" t="n"/>
+      <c r="S78" s="1" t="n"/>
+      <c r="T78" s="1" t="n"/>
+      <c r="U78" s="1" t="n"/>
+      <c r="V78" s="1" t="n"/>
+      <c r="W78" s="1" t="n"/>
+      <c r="X78" s="1" t="n"/>
+      <c r="Y78" s="1" t="n"/>
+      <c r="Z78" s="1" t="n"/>
+    </row>
+    <row r="79" ht="26" customHeight="1">
+      <c r="A79" s="141" t="n"/>
+      <c r="B79" s="150" t="n"/>
+      <c r="C79" s="41" t="n"/>
+      <c r="D79" s="41" t="n"/>
+      <c r="E79" s="151" t="n"/>
+      <c r="F79" s="150" t="n"/>
+      <c r="G79" s="41" t="n"/>
+      <c r="H79" s="41" t="n"/>
+      <c r="I79" s="151" t="n"/>
+      <c r="J79" s="152" t="n"/>
+      <c r="K79" s="41" t="n"/>
+      <c r="L79" s="42" t="n"/>
+      <c r="M79" s="1" t="n"/>
+      <c r="N79" s="1" t="n"/>
+      <c r="O79" s="1" t="n"/>
+      <c r="P79" s="1" t="n"/>
+      <c r="Q79" s="1" t="n"/>
+      <c r="R79" s="1" t="n"/>
+      <c r="S79" s="1" t="n"/>
+      <c r="T79" s="1" t="n"/>
+      <c r="U79" s="1" t="n"/>
+      <c r="V79" s="1" t="n"/>
+      <c r="W79" s="1" t="n"/>
+      <c r="X79" s="1" t="n"/>
+      <c r="Y79" s="1" t="n"/>
+      <c r="Z79" s="1" t="n"/>
+    </row>
+    <row r="80" ht="26" customHeight="1">
+      <c r="A80" s="141" t="n"/>
+      <c r="B80" s="150" t="n"/>
+      <c r="C80" s="41" t="n"/>
+      <c r="D80" s="41" t="n"/>
+      <c r="E80" s="151" t="n"/>
+      <c r="F80" s="150" t="n"/>
+      <c r="G80" s="41" t="n"/>
+      <c r="H80" s="41" t="n"/>
+      <c r="I80" s="151" t="n"/>
+      <c r="J80" s="152" t="n"/>
+      <c r="K80" s="41" t="n"/>
+      <c r="L80" s="42" t="n"/>
+      <c r="M80" s="1" t="n"/>
+      <c r="N80" s="1" t="n"/>
+      <c r="O80" s="1" t="n"/>
+      <c r="P80" s="1" t="n"/>
+      <c r="Q80" s="1" t="n"/>
+      <c r="R80" s="1" t="n"/>
+      <c r="S80" s="1" t="n"/>
+      <c r="T80" s="1" t="n"/>
+      <c r="U80" s="1" t="n"/>
+      <c r="V80" s="1" t="n"/>
+      <c r="W80" s="1" t="n"/>
+      <c r="X80" s="1" t="n"/>
+      <c r="Y80" s="1" t="n"/>
+      <c r="Z80" s="1" t="n"/>
+    </row>
+    <row r="81" ht="26" customHeight="1">
+      <c r="A81" s="141" t="n"/>
+      <c r="B81" s="150" t="n"/>
+      <c r="C81" s="41" t="n"/>
+      <c r="D81" s="41" t="n"/>
+      <c r="E81" s="151" t="n"/>
+      <c r="F81" s="153" t="n"/>
+      <c r="G81" s="41" t="n"/>
+      <c r="H81" s="41" t="n"/>
+      <c r="I81" s="151" t="n"/>
+      <c r="J81" s="154" t="n"/>
+      <c r="K81" s="41" t="n"/>
+      <c r="L81" s="42" t="n"/>
+      <c r="M81" s="1" t="n"/>
+      <c r="N81" s="1" t="n"/>
+      <c r="O81" s="1" t="n"/>
+      <c r="P81" s="1" t="n"/>
+      <c r="Q81" s="1" t="n"/>
+      <c r="R81" s="1" t="n"/>
+      <c r="S81" s="1" t="n"/>
+      <c r="T81" s="1" t="n"/>
+      <c r="U81" s="1" t="n"/>
+      <c r="V81" s="1" t="n"/>
+      <c r="W81" s="1" t="n"/>
+      <c r="X81" s="1" t="n"/>
+      <c r="Y81" s="1" t="n"/>
+      <c r="Z81" s="1" t="n"/>
+    </row>
+    <row r="82" ht="26" customHeight="1">
+      <c r="A82" s="141" t="n"/>
+      <c r="B82" s="150" t="n"/>
+      <c r="C82" s="41" t="n"/>
+      <c r="D82" s="41" t="n"/>
+      <c r="E82" s="151" t="n"/>
+      <c r="F82" s="155" t="n"/>
+      <c r="G82" s="41" t="n"/>
+      <c r="H82" s="41" t="n"/>
+      <c r="I82" s="151" t="n"/>
+      <c r="J82" s="154" t="n"/>
+      <c r="K82" s="41" t="n"/>
+      <c r="L82" s="42" t="n"/>
+      <c r="M82" s="1" t="n"/>
+      <c r="N82" s="1" t="n"/>
+      <c r="O82" s="1" t="n"/>
+      <c r="P82" s="1" t="n"/>
+      <c r="Q82" s="1" t="n"/>
+      <c r="R82" s="1" t="n"/>
+      <c r="S82" s="1" t="n"/>
+      <c r="T82" s="1" t="n"/>
+      <c r="U82" s="1" t="n"/>
+      <c r="V82" s="1" t="n"/>
+      <c r="W82" s="1" t="n"/>
+      <c r="X82" s="1" t="n"/>
+      <c r="Y82" s="1" t="n"/>
+      <c r="Z82" s="1" t="n"/>
+    </row>
+    <row r="83" ht="26" customHeight="1">
+      <c r="A83" s="141" t="n"/>
+      <c r="B83" s="156" t="n"/>
+      <c r="C83" s="157" t="n"/>
+      <c r="D83" s="157" t="n"/>
+      <c r="E83" s="158" t="n"/>
+      <c r="F83" s="159" t="n"/>
+      <c r="G83" s="157" t="n"/>
+      <c r="H83" s="157" t="n"/>
+      <c r="I83" s="157" t="n"/>
+      <c r="J83" s="160" t="n"/>
+      <c r="K83" s="157" t="n"/>
+      <c r="L83" s="161" t="n"/>
+      <c r="M83" s="1" t="n"/>
+      <c r="N83" s="1" t="n"/>
+      <c r="O83" s="1" t="n"/>
+      <c r="P83" s="1" t="n"/>
+      <c r="Q83" s="1" t="n"/>
+      <c r="R83" s="1" t="n"/>
+      <c r="S83" s="1" t="n"/>
+      <c r="T83" s="1" t="n"/>
+      <c r="U83" s="1" t="n"/>
+      <c r="V83" s="1" t="n"/>
+      <c r="W83" s="1" t="n"/>
+      <c r="X83" s="1" t="n"/>
+      <c r="Y83" s="1" t="n"/>
+      <c r="Z83" s="1" t="n"/>
+    </row>
+    <row r="84" ht="15" customHeight="1">
+      <c r="A84" s="162" t="inlineStr">
+        <is>
+          <t>種類</t>
+        </is>
+      </c>
+      <c r="B84" s="163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">□身体介護　　　　　</t>
+        </is>
+      </c>
+      <c r="C84" s="164" t="n"/>
+      <c r="D84" s="164" t="n"/>
+      <c r="E84" s="164" t="n"/>
+      <c r="F84" s="165" t="inlineStr">
+        <is>
+          <t>□家事援助</t>
+        </is>
+      </c>
+      <c r="G84" s="165" t="n"/>
+      <c r="H84" s="166" t="inlineStr">
+        <is>
+          <t>□重度訪問介護</t>
+        </is>
+      </c>
+      <c r="I84" s="167" t="n"/>
+      <c r="J84" s="168" t="inlineStr">
+        <is>
+          <t>介護者種別</t>
+        </is>
+      </c>
+      <c r="K84" s="169" t="n"/>
+      <c r="L84" s="170" t="n"/>
+      <c r="M84" s="1" t="n"/>
+      <c r="N84" s="1" t="n"/>
+      <c r="O84" s="1" t="n"/>
+      <c r="P84" s="1" t="n"/>
+      <c r="Q84" s="1" t="n"/>
+      <c r="R84" s="1" t="n"/>
+      <c r="S84" s="1" t="n"/>
+      <c r="T84" s="1" t="n"/>
+      <c r="U84" s="1" t="n"/>
+      <c r="V84" s="1" t="n"/>
+      <c r="W84" s="1" t="n"/>
+      <c r="X84" s="1" t="n"/>
+      <c r="Y84" s="1" t="n"/>
+      <c r="Z84" s="1" t="n"/>
+    </row>
+    <row r="85" ht="15" customHeight="1">
+      <c r="A85" s="141" t="n"/>
+      <c r="B85" s="171" t="inlineStr">
+        <is>
+          <t>□通院等介助(身体介護を伴う)</t>
+        </is>
+      </c>
+      <c r="C85" s="172" t="n"/>
+      <c r="D85" s="172" t="n"/>
+      <c r="E85" s="172" t="n"/>
+      <c r="F85" s="172" t="inlineStr">
+        <is>
+          <t>□通院等介助(身体介護を伴わない)</t>
+        </is>
+      </c>
+      <c r="G85" s="172" t="n"/>
+      <c r="H85" s="172" t="n"/>
+      <c r="I85" s="173" t="n"/>
+      <c r="J85" s="174" t="n"/>
+      <c r="K85" s="1" t="n"/>
+      <c r="L85" s="175" t="n"/>
+      <c r="M85" s="1" t="n"/>
+      <c r="N85" s="1" t="n"/>
+      <c r="O85" s="1" t="n"/>
+      <c r="P85" s="1" t="n"/>
+      <c r="Q85" s="1" t="n"/>
+      <c r="R85" s="1" t="n"/>
+      <c r="S85" s="1" t="n"/>
+      <c r="T85" s="1" t="n"/>
+      <c r="U85" s="1" t="n"/>
+      <c r="V85" s="1" t="n"/>
+      <c r="W85" s="1" t="n"/>
+      <c r="X85" s="1" t="n"/>
+      <c r="Y85" s="1" t="n"/>
+      <c r="Z85" s="1" t="n"/>
+    </row>
+    <row r="86" ht="16" customHeight="1">
+      <c r="A86" s="176" t="n"/>
+      <c r="B86" s="177" t="inlineStr">
+        <is>
+          <t>□通院等乗降介助</t>
+        </is>
+      </c>
+      <c r="C86" s="178" t="n"/>
+      <c r="D86" s="178" t="n"/>
+      <c r="E86" s="178" t="n"/>
+      <c r="F86" s="178" t="inlineStr">
+        <is>
+          <t>□行動援護</t>
+        </is>
+      </c>
+      <c r="G86" s="178" t="n"/>
+      <c r="H86" s="179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">□同行援護　　　</t>
+        </is>
+      </c>
+      <c r="I86" s="180" t="n"/>
+      <c r="J86" s="181" t="n"/>
+      <c r="K86" s="182" t="n"/>
+      <c r="L86" s="183" t="n"/>
+      <c r="M86" s="1" t="n"/>
+      <c r="N86" s="1" t="n"/>
+      <c r="O86" s="1" t="n"/>
+      <c r="P86" s="1" t="n"/>
+      <c r="Q86" s="1" t="n"/>
+      <c r="R86" s="1" t="n"/>
+      <c r="S86" s="1" t="n"/>
+      <c r="T86" s="1" t="n"/>
+      <c r="U86" s="1" t="n"/>
+      <c r="V86" s="1" t="n"/>
+      <c r="W86" s="1" t="n"/>
+      <c r="X86" s="1" t="n"/>
+      <c r="Y86" s="1" t="n"/>
+      <c r="Z86" s="1" t="n"/>
+    </row>
+    <row r="87" ht="16" customHeight="1">
+      <c r="A87" s="49" t="n"/>
+      <c r="B87" s="27" t="n"/>
+      <c r="C87" s="27" t="n"/>
+      <c r="D87" s="27" t="n"/>
+      <c r="E87" s="27" t="n"/>
+      <c r="F87" s="60" t="n"/>
+      <c r="G87" s="27" t="n"/>
+      <c r="H87" s="27" t="n"/>
+      <c r="I87" s="27" t="n"/>
+      <c r="J87" s="27" t="n"/>
+      <c r="K87" s="27" t="n"/>
+      <c r="L87" s="27" t="n"/>
+      <c r="M87" s="1" t="n"/>
+      <c r="N87" s="1" t="n"/>
+      <c r="O87" s="1" t="n"/>
+      <c r="P87" s="1" t="n"/>
+      <c r="Q87" s="1" t="n"/>
+      <c r="R87" s="1" t="n"/>
+      <c r="S87" s="1" t="n"/>
+      <c r="T87" s="1" t="n"/>
+      <c r="U87" s="1" t="n"/>
+      <c r="V87" s="1" t="n"/>
+      <c r="W87" s="1" t="n"/>
+      <c r="X87" s="1" t="n"/>
+      <c r="Y87" s="1" t="n"/>
+      <c r="Z87" s="1" t="n"/>
+    </row>
+    <row r="88" ht="17" customHeight="1">
+      <c r="A88" s="138" t="inlineStr">
+        <is>
+          <t>サービス　2</t>
+        </is>
+      </c>
+      <c r="B88" s="139" t="inlineStr">
+        <is>
+          <t>援助項目</t>
+        </is>
+      </c>
+      <c r="C88" s="56" t="n"/>
+      <c r="D88" s="56" t="n"/>
+      <c r="E88" s="57" t="n"/>
+      <c r="F88" s="140" t="inlineStr">
+        <is>
+          <t>サービスの内容</t>
+        </is>
+      </c>
+      <c r="G88" s="56" t="n"/>
+      <c r="H88" s="56" t="n"/>
+      <c r="I88" s="57" t="n"/>
+      <c r="J88" s="139" t="inlineStr">
+        <is>
+          <t>留　意　事　項</t>
+        </is>
+      </c>
+      <c r="K88" s="56" t="n"/>
+      <c r="L88" s="57" t="n"/>
+      <c r="M88" s="1" t="n"/>
+      <c r="N88" s="1" t="n"/>
+      <c r="O88" s="1" t="n"/>
+      <c r="P88" s="1" t="n"/>
+      <c r="Q88" s="1" t="n"/>
+      <c r="R88" s="1" t="n"/>
+      <c r="S88" s="1" t="n"/>
+      <c r="T88" s="1" t="n"/>
+      <c r="U88" s="1" t="n"/>
+      <c r="V88" s="1" t="n"/>
+      <c r="W88" s="1" t="n"/>
+      <c r="X88" s="1" t="n"/>
+      <c r="Y88" s="1" t="n"/>
+      <c r="Z88" s="1" t="n"/>
+    </row>
+    <row r="89" ht="26" customHeight="1">
+      <c r="A89" s="141" t="n"/>
+      <c r="B89" s="142" t="n"/>
+      <c r="C89" s="143" t="n"/>
+      <c r="D89" s="143" t="n"/>
+      <c r="E89" s="144" t="n"/>
+      <c r="F89" s="145" t="n"/>
+      <c r="G89" s="146" t="n"/>
+      <c r="H89" s="146" t="n"/>
+      <c r="I89" s="147" t="n"/>
+      <c r="J89" s="148" t="n"/>
+      <c r="K89" s="143" t="n"/>
+      <c r="L89" s="149" t="n"/>
+      <c r="M89" s="1" t="n"/>
+      <c r="N89" s="1" t="n"/>
+      <c r="O89" s="1" t="n"/>
+      <c r="P89" s="1" t="n"/>
+      <c r="Q89" s="1" t="n"/>
+      <c r="R89" s="1" t="n"/>
+      <c r="S89" s="1" t="n"/>
+      <c r="T89" s="1" t="n"/>
+      <c r="U89" s="1" t="n"/>
+      <c r="V89" s="1" t="n"/>
+      <c r="W89" s="1" t="n"/>
+      <c r="X89" s="1" t="n"/>
+      <c r="Y89" s="1" t="n"/>
+      <c r="Z89" s="1" t="n"/>
+    </row>
+    <row r="90" ht="26" customHeight="1">
+      <c r="A90" s="141" t="n"/>
+      <c r="B90" s="150" t="n"/>
+      <c r="C90" s="41" t="n"/>
+      <c r="D90" s="41" t="n"/>
+      <c r="E90" s="151" t="n"/>
+      <c r="F90" s="150" t="n"/>
+      <c r="G90" s="41" t="n"/>
+      <c r="H90" s="41" t="n"/>
+      <c r="I90" s="151" t="n"/>
+      <c r="J90" s="152" t="n"/>
+      <c r="K90" s="41" t="n"/>
+      <c r="L90" s="42" t="n"/>
+      <c r="M90" s="1" t="n"/>
+      <c r="N90" s="1" t="n"/>
+      <c r="O90" s="1" t="n"/>
+      <c r="P90" s="1" t="n"/>
+      <c r="Q90" s="1" t="n"/>
+      <c r="R90" s="1" t="n"/>
+      <c r="S90" s="1" t="n"/>
+      <c r="T90" s="1" t="n"/>
+      <c r="U90" s="1" t="n"/>
+      <c r="V90" s="1" t="n"/>
+      <c r="W90" s="1" t="n"/>
+      <c r="X90" s="1" t="n"/>
+      <c r="Y90" s="1" t="n"/>
+      <c r="Z90" s="1" t="n"/>
+    </row>
+    <row r="91" ht="26" customHeight="1">
+      <c r="A91" s="141" t="n"/>
+      <c r="B91" s="150" t="n"/>
+      <c r="C91" s="41" t="n"/>
+      <c r="D91" s="41" t="n"/>
+      <c r="E91" s="151" t="n"/>
+      <c r="F91" s="150" t="n"/>
+      <c r="G91" s="41" t="n"/>
+      <c r="H91" s="41" t="n"/>
+      <c r="I91" s="151" t="n"/>
+      <c r="J91" s="152" t="n"/>
+      <c r="K91" s="41" t="n"/>
+      <c r="L91" s="42" t="n"/>
+      <c r="M91" s="1" t="n"/>
+      <c r="N91" s="1" t="n"/>
+      <c r="O91" s="1" t="n"/>
+      <c r="P91" s="1" t="n"/>
+      <c r="Q91" s="1" t="n"/>
+      <c r="R91" s="1" t="n"/>
+      <c r="S91" s="1" t="n"/>
+      <c r="T91" s="1" t="n"/>
+      <c r="U91" s="1" t="n"/>
+      <c r="V91" s="1" t="n"/>
+      <c r="W91" s="1" t="n"/>
+      <c r="X91" s="1" t="n"/>
+      <c r="Y91" s="1" t="n"/>
+      <c r="Z91" s="1" t="n"/>
+    </row>
+    <row r="92" ht="26" customHeight="1">
+      <c r="A92" s="141" t="n"/>
+      <c r="B92" s="150" t="n"/>
+      <c r="C92" s="41" t="n"/>
+      <c r="D92" s="41" t="n"/>
+      <c r="E92" s="151" t="n"/>
+      <c r="F92" s="150" t="n"/>
+      <c r="G92" s="41" t="n"/>
+      <c r="H92" s="41" t="n"/>
+      <c r="I92" s="151" t="n"/>
+      <c r="J92" s="152" t="n"/>
+      <c r="K92" s="41" t="n"/>
+      <c r="L92" s="42" t="n"/>
+      <c r="M92" s="1" t="n"/>
+      <c r="N92" s="1" t="n"/>
+      <c r="O92" s="1" t="n"/>
+      <c r="P92" s="1" t="n"/>
+      <c r="Q92" s="1" t="n"/>
+      <c r="R92" s="1" t="n"/>
+      <c r="S92" s="1" t="n"/>
+      <c r="T92" s="1" t="n"/>
+      <c r="U92" s="1" t="n"/>
+      <c r="V92" s="1" t="n"/>
+      <c r="W92" s="1" t="n"/>
+      <c r="X92" s="1" t="n"/>
+      <c r="Y92" s="1" t="n"/>
+      <c r="Z92" s="1" t="n"/>
+    </row>
+    <row r="93" ht="26" customHeight="1">
+      <c r="A93" s="141" t="n"/>
+      <c r="B93" s="150" t="n"/>
+      <c r="C93" s="41" t="n"/>
+      <c r="D93" s="41" t="n"/>
+      <c r="E93" s="151" t="n"/>
+      <c r="F93" s="150" t="n"/>
+      <c r="G93" s="41" t="n"/>
+      <c r="H93" s="41" t="n"/>
+      <c r="I93" s="151" t="n"/>
+      <c r="J93" s="152" t="n"/>
+      <c r="K93" s="41" t="n"/>
+      <c r="L93" s="42" t="n"/>
+      <c r="M93" s="1" t="n"/>
+      <c r="N93" s="1" t="n"/>
+      <c r="O93" s="1" t="n"/>
+      <c r="P93" s="1" t="n"/>
+      <c r="Q93" s="1" t="n"/>
+      <c r="R93" s="1" t="n"/>
+      <c r="S93" s="1" t="n"/>
+      <c r="T93" s="1" t="n"/>
+      <c r="U93" s="1" t="n"/>
+      <c r="V93" s="1" t="n"/>
+      <c r="W93" s="1" t="n"/>
+      <c r="X93" s="1" t="n"/>
+      <c r="Y93" s="1" t="n"/>
+      <c r="Z93" s="1" t="n"/>
+    </row>
+    <row r="94" ht="26" customHeight="1">
+      <c r="A94" s="141" t="n"/>
+      <c r="B94" s="150" t="n"/>
+      <c r="C94" s="41" t="n"/>
+      <c r="D94" s="41" t="n"/>
+      <c r="E94" s="151" t="n"/>
+      <c r="F94" s="153" t="n"/>
+      <c r="G94" s="41" t="n"/>
+      <c r="H94" s="41" t="n"/>
+      <c r="I94" s="151" t="n"/>
+      <c r="J94" s="154" t="n"/>
+      <c r="K94" s="41" t="n"/>
+      <c r="L94" s="42" t="n"/>
+      <c r="M94" s="1" t="n"/>
+      <c r="N94" s="1" t="n"/>
+      <c r="O94" s="1" t="n"/>
+      <c r="P94" s="1" t="n"/>
+      <c r="Q94" s="1" t="n"/>
+      <c r="R94" s="1" t="n"/>
+      <c r="S94" s="1" t="n"/>
+      <c r="T94" s="1" t="n"/>
+      <c r="U94" s="1" t="n"/>
+      <c r="V94" s="1" t="n"/>
+      <c r="W94" s="1" t="n"/>
+      <c r="X94" s="1" t="n"/>
+      <c r="Y94" s="1" t="n"/>
+      <c r="Z94" s="1" t="n"/>
+    </row>
+    <row r="95" ht="26" customHeight="1">
+      <c r="A95" s="141" t="n"/>
+      <c r="B95" s="150" t="n"/>
+      <c r="C95" s="41" t="n"/>
+      <c r="D95" s="41" t="n"/>
+      <c r="E95" s="151" t="n"/>
+      <c r="F95" s="155" t="n"/>
+      <c r="G95" s="41" t="n"/>
+      <c r="H95" s="41" t="n"/>
+      <c r="I95" s="151" t="n"/>
+      <c r="J95" s="154" t="n"/>
+      <c r="K95" s="41" t="n"/>
+      <c r="L95" s="42" t="n"/>
+      <c r="M95" s="1" t="n"/>
+      <c r="N95" s="1" t="n"/>
+      <c r="O95" s="1" t="n"/>
+      <c r="P95" s="1" t="n"/>
+      <c r="Q95" s="1" t="n"/>
+      <c r="R95" s="1" t="n"/>
+      <c r="S95" s="1" t="n"/>
+      <c r="T95" s="1" t="n"/>
+      <c r="U95" s="1" t="n"/>
+      <c r="V95" s="1" t="n"/>
+      <c r="W95" s="1" t="n"/>
+      <c r="X95" s="1" t="n"/>
+      <c r="Y95" s="1" t="n"/>
+      <c r="Z95" s="1" t="n"/>
+    </row>
+    <row r="96" ht="26" customHeight="1">
+      <c r="A96" s="141" t="n"/>
+      <c r="B96" s="150" t="n"/>
+      <c r="C96" s="41" t="n"/>
+      <c r="D96" s="41" t="n"/>
+      <c r="E96" s="151" t="n"/>
+      <c r="F96" s="159" t="n"/>
+      <c r="G96" s="157" t="n"/>
+      <c r="H96" s="157" t="n"/>
+      <c r="I96" s="157" t="n"/>
+      <c r="J96" s="160" t="n"/>
+      <c r="K96" s="157" t="n"/>
+      <c r="L96" s="161" t="n"/>
+      <c r="M96" s="1" t="n"/>
+      <c r="N96" s="1" t="n"/>
+      <c r="O96" s="1" t="n"/>
+      <c r="P96" s="1" t="n"/>
+      <c r="Q96" s="1" t="n"/>
+      <c r="R96" s="1" t="n"/>
+      <c r="S96" s="1" t="n"/>
+      <c r="T96" s="1" t="n"/>
+      <c r="U96" s="1" t="n"/>
+      <c r="V96" s="1" t="n"/>
+      <c r="W96" s="1" t="n"/>
+      <c r="X96" s="1" t="n"/>
+      <c r="Y96" s="1" t="n"/>
+      <c r="Z96" s="1" t="n"/>
+    </row>
+    <row r="97" ht="15" customHeight="1">
+      <c r="A97" s="162" t="inlineStr">
+        <is>
+          <t>種類</t>
+        </is>
+      </c>
+      <c r="B97" s="163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">□身体介護　　　　　</t>
+        </is>
+      </c>
+      <c r="C97" s="164" t="n"/>
+      <c r="D97" s="164" t="n"/>
+      <c r="E97" s="164" t="n"/>
+      <c r="F97" s="165" t="inlineStr">
+        <is>
+          <t>□家事援助</t>
+        </is>
+      </c>
+      <c r="G97" s="165" t="n"/>
+      <c r="H97" s="166" t="inlineStr">
+        <is>
+          <t>□重度訪問介護</t>
+        </is>
+      </c>
+      <c r="I97" s="167" t="n"/>
+      <c r="J97" s="168" t="inlineStr">
+        <is>
+          <t>介護者種別</t>
+        </is>
+      </c>
+      <c r="K97" s="169" t="n"/>
+      <c r="L97" s="170" t="n"/>
+      <c r="M97" s="1" t="n"/>
+      <c r="N97" s="1" t="n"/>
+      <c r="O97" s="1" t="n"/>
+      <c r="P97" s="1" t="n"/>
+      <c r="Q97" s="1" t="n"/>
+      <c r="R97" s="1" t="n"/>
+      <c r="S97" s="1" t="n"/>
+      <c r="T97" s="1" t="n"/>
+      <c r="U97" s="1" t="n"/>
+      <c r="V97" s="1" t="n"/>
+      <c r="W97" s="1" t="n"/>
+      <c r="X97" s="1" t="n"/>
+      <c r="Y97" s="1" t="n"/>
+      <c r="Z97" s="1" t="n"/>
+    </row>
+    <row r="98" ht="15" customHeight="1">
+      <c r="A98" s="141" t="n"/>
+      <c r="B98" s="171" t="inlineStr">
+        <is>
+          <t>□通院等介助(身体介護を伴う)</t>
+        </is>
+      </c>
+      <c r="C98" s="172" t="n"/>
+      <c r="D98" s="172" t="n"/>
+      <c r="E98" s="172" t="n"/>
+      <c r="F98" s="172" t="inlineStr">
+        <is>
+          <t>□通院等介助(身体介護を伴わない)</t>
+        </is>
+      </c>
+      <c r="G98" s="172" t="n"/>
+      <c r="H98" s="172" t="n"/>
+      <c r="I98" s="173" t="n"/>
+      <c r="J98" s="174" t="n"/>
+      <c r="K98" s="1" t="n"/>
+      <c r="L98" s="175" t="n"/>
+      <c r="M98" s="1" t="n"/>
+      <c r="N98" s="1" t="n"/>
+      <c r="O98" s="1" t="n"/>
+      <c r="P98" s="1" t="n"/>
+      <c r="Q98" s="1" t="n"/>
+      <c r="R98" s="1" t="n"/>
+      <c r="S98" s="1" t="n"/>
+      <c r="T98" s="1" t="n"/>
+      <c r="U98" s="1" t="n"/>
+      <c r="V98" s="1" t="n"/>
+      <c r="W98" s="1" t="n"/>
+      <c r="X98" s="1" t="n"/>
+      <c r="Y98" s="1" t="n"/>
+      <c r="Z98" s="1" t="n"/>
+    </row>
+    <row r="99" ht="16" customHeight="1">
+      <c r="A99" s="176" t="n"/>
+      <c r="B99" s="177" t="inlineStr">
+        <is>
+          <t>□通院等乗降介助</t>
+        </is>
+      </c>
+      <c r="C99" s="178" t="n"/>
+      <c r="D99" s="178" t="n"/>
+      <c r="E99" s="178" t="n"/>
+      <c r="F99" s="178" t="inlineStr">
+        <is>
+          <t>□行動援護</t>
+        </is>
+      </c>
+      <c r="G99" s="178" t="n"/>
+      <c r="H99" s="179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">□同行援護　　　</t>
+        </is>
+      </c>
+      <c r="I99" s="180" t="n"/>
+      <c r="J99" s="181" t="n"/>
+      <c r="K99" s="182" t="n"/>
+      <c r="L99" s="183" t="n"/>
+      <c r="M99" s="1" t="n"/>
+      <c r="N99" s="1" t="n"/>
+      <c r="O99" s="1" t="n"/>
+      <c r="P99" s="1" t="n"/>
+      <c r="Q99" s="1" t="n"/>
+      <c r="R99" s="1" t="n"/>
+      <c r="S99" s="1" t="n"/>
+      <c r="T99" s="1" t="n"/>
+      <c r="U99" s="1" t="n"/>
+      <c r="V99" s="1" t="n"/>
+      <c r="W99" s="1" t="n"/>
+      <c r="X99" s="1" t="n"/>
+      <c r="Y99" s="1" t="n"/>
+      <c r="Z99" s="1" t="n"/>
+    </row>
+    <row r="100" ht="15" customHeight="1">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="1" t="n"/>
+      <c r="C100" s="1" t="n"/>
+      <c r="D100" s="1" t="n"/>
+      <c r="E100" s="1" t="n"/>
+      <c r="F100" s="1" t="n"/>
+      <c r="G100" s="1" t="n"/>
+      <c r="H100" s="1" t="n"/>
+      <c r="I100" s="1" t="n"/>
+      <c r="J100" s="1" t="n"/>
+      <c r="K100" s="1" t="n"/>
+      <c r="L100" s="1" t="n"/>
+      <c r="M100" s="1" t="n"/>
+      <c r="N100" s="1" t="n"/>
+      <c r="O100" s="1" t="n"/>
+      <c r="P100" s="1" t="n"/>
+      <c r="Q100" s="1" t="n"/>
+      <c r="R100" s="1" t="n"/>
+      <c r="S100" s="1" t="n"/>
+      <c r="T100" s="1" t="n"/>
+      <c r="U100" s="1" t="n"/>
+      <c r="V100" s="1" t="n"/>
+      <c r="W100" s="1" t="n"/>
+      <c r="X100" s="1" t="n"/>
+      <c r="Y100" s="1" t="n"/>
+      <c r="Z100" s="1" t="n"/>
+    </row>
+    <row r="101" ht="17" customHeight="1">
+      <c r="A101" s="138" t="inlineStr">
+        <is>
+          <t>サービス　3</t>
+        </is>
+      </c>
+      <c r="B101" s="139" t="inlineStr">
+        <is>
+          <t>援助項目</t>
+        </is>
+      </c>
+      <c r="C101" s="56" t="n"/>
+      <c r="D101" s="56" t="n"/>
+      <c r="E101" s="57" t="n"/>
+      <c r="F101" s="140" t="inlineStr">
+        <is>
+          <t>サービスの内容</t>
+        </is>
+      </c>
+      <c r="G101" s="56" t="n"/>
+      <c r="H101" s="56" t="n"/>
+      <c r="I101" s="57" t="n"/>
+      <c r="J101" s="139" t="inlineStr">
+        <is>
+          <t>留　意　事　項</t>
+        </is>
+      </c>
+      <c r="K101" s="56" t="n"/>
+      <c r="L101" s="57" t="n"/>
+      <c r="M101" s="1" t="n"/>
+      <c r="N101" s="1" t="n"/>
+      <c r="O101" s="1" t="n"/>
+      <c r="P101" s="1" t="n"/>
+      <c r="Q101" s="1" t="n"/>
+      <c r="R101" s="1" t="n"/>
+      <c r="S101" s="1" t="n"/>
+      <c r="T101" s="1" t="n"/>
+      <c r="U101" s="1" t="n"/>
+      <c r="V101" s="1" t="n"/>
+      <c r="W101" s="1" t="n"/>
+      <c r="X101" s="1" t="n"/>
+      <c r="Y101" s="1" t="n"/>
+      <c r="Z101" s="1" t="n"/>
+    </row>
+    <row r="102" ht="26" customHeight="1">
+      <c r="A102" s="141" t="n"/>
+      <c r="B102" s="142" t="n"/>
+      <c r="C102" s="143" t="n"/>
+      <c r="D102" s="143" t="n"/>
+      <c r="E102" s="144" t="n"/>
+      <c r="F102" s="145" t="n"/>
+      <c r="G102" s="146" t="n"/>
+      <c r="H102" s="146" t="n"/>
+      <c r="I102" s="147" t="n"/>
+      <c r="J102" s="148" t="n"/>
+      <c r="K102" s="143" t="n"/>
+      <c r="L102" s="149" t="n"/>
+      <c r="M102" s="1" t="n"/>
+      <c r="N102" s="1" t="n"/>
+      <c r="O102" s="1" t="n"/>
+      <c r="P102" s="1" t="n"/>
+      <c r="Q102" s="1" t="n"/>
+      <c r="R102" s="1" t="n"/>
+      <c r="S102" s="1" t="n"/>
+      <c r="T102" s="1" t="n"/>
+      <c r="U102" s="1" t="n"/>
+      <c r="V102" s="1" t="n"/>
+      <c r="W102" s="1" t="n"/>
+      <c r="X102" s="1" t="n"/>
+      <c r="Y102" s="1" t="n"/>
+      <c r="Z102" s="1" t="n"/>
+    </row>
+    <row r="103" ht="26" customHeight="1">
+      <c r="A103" s="141" t="n"/>
+      <c r="B103" s="150" t="n"/>
+      <c r="C103" s="41" t="n"/>
+      <c r="D103" s="41" t="n"/>
+      <c r="E103" s="151" t="n"/>
+      <c r="F103" s="150" t="n"/>
+      <c r="G103" s="41" t="n"/>
+      <c r="H103" s="41" t="n"/>
+      <c r="I103" s="151" t="n"/>
+      <c r="J103" s="152" t="n"/>
+      <c r="K103" s="41" t="n"/>
+      <c r="L103" s="42" t="n"/>
+      <c r="M103" s="1" t="n"/>
+      <c r="N103" s="1" t="n"/>
+      <c r="O103" s="1" t="n"/>
+      <c r="P103" s="1" t="n"/>
+      <c r="Q103" s="1" t="n"/>
+      <c r="R103" s="1" t="n"/>
+      <c r="S103" s="1" t="n"/>
+      <c r="T103" s="1" t="n"/>
+      <c r="U103" s="1" t="n"/>
+      <c r="V103" s="1" t="n"/>
+      <c r="W103" s="1" t="n"/>
+      <c r="X103" s="1" t="n"/>
+      <c r="Y103" s="1" t="n"/>
+      <c r="Z103" s="1" t="n"/>
+    </row>
+    <row r="104" ht="26" customHeight="1">
+      <c r="A104" s="141" t="n"/>
+      <c r="B104" s="150" t="n"/>
+      <c r="C104" s="41" t="n"/>
+      <c r="D104" s="41" t="n"/>
+      <c r="E104" s="151" t="n"/>
+      <c r="F104" s="150" t="n"/>
+      <c r="G104" s="41" t="n"/>
+      <c r="H104" s="41" t="n"/>
+      <c r="I104" s="151" t="n"/>
+      <c r="J104" s="152" t="n"/>
+      <c r="K104" s="41" t="n"/>
+      <c r="L104" s="42" t="n"/>
+      <c r="M104" s="1" t="n"/>
+      <c r="N104" s="1" t="n"/>
+      <c r="O104" s="1" t="n"/>
+      <c r="P104" s="1" t="n"/>
+      <c r="Q104" s="1" t="n"/>
+      <c r="R104" s="1" t="n"/>
+      <c r="S104" s="1" t="n"/>
+      <c r="T104" s="1" t="n"/>
+      <c r="U104" s="1" t="n"/>
+      <c r="V104" s="1" t="n"/>
+      <c r="W104" s="1" t="n"/>
+      <c r="X104" s="1" t="n"/>
+      <c r="Y104" s="1" t="n"/>
+      <c r="Z104" s="1" t="n"/>
+    </row>
+    <row r="105" ht="26" customHeight="1">
+      <c r="A105" s="141" t="n"/>
+      <c r="B105" s="150" t="n"/>
+      <c r="C105" s="41" t="n"/>
+      <c r="D105" s="41" t="n"/>
+      <c r="E105" s="151" t="n"/>
+      <c r="F105" s="150" t="n"/>
+      <c r="G105" s="41" t="n"/>
+      <c r="H105" s="41" t="n"/>
+      <c r="I105" s="151" t="n"/>
+      <c r="J105" s="152" t="n"/>
+      <c r="K105" s="41" t="n"/>
+      <c r="L105" s="42" t="n"/>
+      <c r="M105" s="1" t="n"/>
+      <c r="N105" s="1" t="n"/>
+      <c r="O105" s="1" t="n"/>
+      <c r="P105" s="1" t="n"/>
+      <c r="Q105" s="1" t="n"/>
+      <c r="R105" s="1" t="n"/>
+      <c r="S105" s="1" t="n"/>
+      <c r="T105" s="1" t="n"/>
+      <c r="U105" s="1" t="n"/>
+      <c r="V105" s="1" t="n"/>
+      <c r="W105" s="1" t="n"/>
+      <c r="X105" s="1" t="n"/>
+      <c r="Y105" s="1" t="n"/>
+      <c r="Z105" s="1" t="n"/>
+    </row>
+    <row r="106" ht="26" customHeight="1">
+      <c r="A106" s="141" t="n"/>
+      <c r="B106" s="150" t="n"/>
+      <c r="C106" s="41" t="n"/>
+      <c r="D106" s="41" t="n"/>
+      <c r="E106" s="151" t="n"/>
+      <c r="F106" s="150" t="n"/>
+      <c r="G106" s="41" t="n"/>
+      <c r="H106" s="41" t="n"/>
+      <c r="I106" s="151" t="n"/>
+      <c r="J106" s="152" t="n"/>
+      <c r="K106" s="41" t="n"/>
+      <c r="L106" s="42" t="n"/>
+      <c r="M106" s="1" t="n"/>
+      <c r="N106" s="1" t="n"/>
+      <c r="O106" s="1" t="n"/>
+      <c r="P106" s="1" t="n"/>
+      <c r="Q106" s="1" t="n"/>
+      <c r="R106" s="1" t="n"/>
+      <c r="S106" s="1" t="n"/>
+      <c r="T106" s="1" t="n"/>
+      <c r="U106" s="1" t="n"/>
+      <c r="V106" s="1" t="n"/>
+      <c r="W106" s="1" t="n"/>
+      <c r="X106" s="1" t="n"/>
+      <c r="Y106" s="1" t="n"/>
+      <c r="Z106" s="1" t="n"/>
+    </row>
+    <row r="107" ht="26" customHeight="1">
+      <c r="A107" s="141" t="n"/>
+      <c r="B107" s="150" t="n"/>
+      <c r="C107" s="41" t="n"/>
+      <c r="D107" s="41" t="n"/>
+      <c r="E107" s="151" t="n"/>
+      <c r="F107" s="153" t="n"/>
+      <c r="G107" s="41" t="n"/>
+      <c r="H107" s="41" t="n"/>
+      <c r="I107" s="151" t="n"/>
+      <c r="J107" s="154" t="n"/>
+      <c r="K107" s="41" t="n"/>
+      <c r="L107" s="42" t="n"/>
+      <c r="M107" s="1" t="n"/>
+      <c r="N107" s="1" t="n"/>
+      <c r="O107" s="1" t="n"/>
+      <c r="P107" s="1" t="n"/>
+      <c r="Q107" s="1" t="n"/>
+      <c r="R107" s="1" t="n"/>
+      <c r="S107" s="1" t="n"/>
+      <c r="T107" s="1" t="n"/>
+      <c r="U107" s="1" t="n"/>
+      <c r="V107" s="1" t="n"/>
+      <c r="W107" s="1" t="n"/>
+      <c r="X107" s="1" t="n"/>
+      <c r="Y107" s="1" t="n"/>
+      <c r="Z107" s="1" t="n"/>
+    </row>
+    <row r="108" ht="26" customHeight="1">
+      <c r="A108" s="141" t="n"/>
+      <c r="B108" s="150" t="n"/>
+      <c r="C108" s="41" t="n"/>
+      <c r="D108" s="41" t="n"/>
+      <c r="E108" s="151" t="n"/>
+      <c r="F108" s="155" t="n"/>
+      <c r="G108" s="41" t="n"/>
+      <c r="H108" s="41" t="n"/>
+      <c r="I108" s="151" t="n"/>
+      <c r="J108" s="154" t="n"/>
+      <c r="K108" s="41" t="n"/>
+      <c r="L108" s="42" t="n"/>
+      <c r="M108" s="1" t="n"/>
+      <c r="N108" s="1" t="n"/>
+      <c r="O108" s="1" t="n"/>
+      <c r="P108" s="1" t="n"/>
+      <c r="Q108" s="1" t="n"/>
+      <c r="R108" s="1" t="n"/>
+      <c r="S108" s="1" t="n"/>
+      <c r="T108" s="1" t="n"/>
+      <c r="U108" s="1" t="n"/>
+      <c r="V108" s="1" t="n"/>
+      <c r="W108" s="1" t="n"/>
+      <c r="X108" s="1" t="n"/>
+      <c r="Y108" s="1" t="n"/>
+      <c r="Z108" s="1" t="n"/>
+    </row>
+    <row r="109" ht="26" customHeight="1">
+      <c r="A109" s="141" t="n"/>
+      <c r="B109" s="150" t="n"/>
+      <c r="C109" s="41" t="n"/>
+      <c r="D109" s="41" t="n"/>
+      <c r="E109" s="151" t="n"/>
+      <c r="F109" s="159" t="n"/>
+      <c r="G109" s="157" t="n"/>
+      <c r="H109" s="157" t="n"/>
+      <c r="I109" s="157" t="n"/>
+      <c r="J109" s="160" t="n"/>
+      <c r="K109" s="157" t="n"/>
+      <c r="L109" s="161" t="n"/>
+      <c r="M109" s="1" t="n"/>
+      <c r="N109" s="1" t="n"/>
+      <c r="O109" s="1" t="n"/>
+      <c r="P109" s="1" t="n"/>
+      <c r="Q109" s="1" t="n"/>
+      <c r="R109" s="1" t="n"/>
+      <c r="S109" s="1" t="n"/>
+      <c r="T109" s="1" t="n"/>
+      <c r="U109" s="1" t="n"/>
+      <c r="V109" s="1" t="n"/>
+      <c r="W109" s="1" t="n"/>
+      <c r="X109" s="1" t="n"/>
+      <c r="Y109" s="1" t="n"/>
+      <c r="Z109" s="1" t="n"/>
+    </row>
+    <row r="110" ht="15" customHeight="1">
+      <c r="A110" s="162" t="inlineStr">
+        <is>
+          <t>種類</t>
+        </is>
+      </c>
+      <c r="B110" s="163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">□身体介護　　　　　</t>
+        </is>
+      </c>
+      <c r="C110" s="164" t="n"/>
+      <c r="D110" s="164" t="n"/>
+      <c r="E110" s="164" t="n"/>
+      <c r="F110" s="165" t="inlineStr">
+        <is>
+          <t>□家事援助</t>
+        </is>
+      </c>
+      <c r="G110" s="165" t="n"/>
+      <c r="H110" s="166" t="inlineStr">
+        <is>
+          <t>□重度訪問介護</t>
+        </is>
+      </c>
+      <c r="I110" s="167" t="n"/>
+      <c r="J110" s="168" t="inlineStr">
+        <is>
+          <t>介護者種別</t>
+        </is>
+      </c>
+      <c r="K110" s="169" t="n"/>
+      <c r="L110" s="170" t="n"/>
+      <c r="M110" s="1" t="n"/>
+      <c r="N110" s="1" t="n"/>
+      <c r="O110" s="1" t="n"/>
+      <c r="P110" s="1" t="n"/>
+      <c r="Q110" s="1" t="n"/>
+      <c r="R110" s="1" t="n"/>
+      <c r="S110" s="1" t="n"/>
+      <c r="T110" s="1" t="n"/>
+      <c r="U110" s="1" t="n"/>
+      <c r="V110" s="1" t="n"/>
+      <c r="W110" s="1" t="n"/>
+      <c r="X110" s="1" t="n"/>
+      <c r="Y110" s="1" t="n"/>
+      <c r="Z110" s="1" t="n"/>
+    </row>
+    <row r="111" ht="15" customHeight="1">
+      <c r="A111" s="141" t="n"/>
+      <c r="B111" s="171" t="inlineStr">
+        <is>
+          <t>□通院等介助(身体介護を伴う)</t>
+        </is>
+      </c>
+      <c r="C111" s="172" t="n"/>
+      <c r="D111" s="172" t="n"/>
+      <c r="E111" s="172" t="n"/>
+      <c r="F111" s="172" t="inlineStr">
+        <is>
+          <t>□通院等介助(身体介護を伴わない)</t>
+        </is>
+      </c>
+      <c r="G111" s="172" t="n"/>
+      <c r="H111" s="172" t="n"/>
+      <c r="I111" s="173" t="n"/>
+      <c r="J111" s="174" t="n"/>
+      <c r="K111" s="1" t="n"/>
+      <c r="L111" s="175" t="n"/>
+      <c r="M111" s="1" t="n"/>
+      <c r="N111" s="1" t="n"/>
+      <c r="O111" s="1" t="n"/>
+      <c r="P111" s="1" t="n"/>
+      <c r="Q111" s="1" t="n"/>
+      <c r="R111" s="1" t="n"/>
+      <c r="S111" s="1" t="n"/>
+      <c r="T111" s="1" t="n"/>
+      <c r="U111" s="1" t="n"/>
+      <c r="V111" s="1" t="n"/>
+      <c r="W111" s="1" t="n"/>
+      <c r="X111" s="1" t="n"/>
+      <c r="Y111" s="1" t="n"/>
+      <c r="Z111" s="1" t="n"/>
+    </row>
+    <row r="112" ht="16" customHeight="1">
+      <c r="A112" s="176" t="n"/>
+      <c r="B112" s="177" t="inlineStr">
+        <is>
+          <t>□通院等乗降介助</t>
+        </is>
+      </c>
+      <c r="C112" s="178" t="n"/>
+      <c r="D112" s="178" t="n"/>
+      <c r="E112" s="178" t="n"/>
+      <c r="F112" s="178" t="inlineStr">
+        <is>
+          <t>□行動援護</t>
+        </is>
+      </c>
+      <c r="G112" s="178" t="n"/>
+      <c r="H112" s="179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">□同行援護　　　</t>
+        </is>
+      </c>
+      <c r="I112" s="180" t="n"/>
+      <c r="J112" s="181" t="n"/>
+      <c r="K112" s="182" t="n"/>
+      <c r="L112" s="183" t="n"/>
+      <c r="M112" s="1" t="n"/>
+      <c r="N112" s="1" t="n"/>
+      <c r="O112" s="1" t="n"/>
+      <c r="P112" s="1" t="n"/>
+      <c r="Q112" s="1" t="n"/>
+      <c r="R112" s="1" t="n"/>
+      <c r="S112" s="1" t="n"/>
+      <c r="T112" s="1" t="n"/>
+      <c r="U112" s="1" t="n"/>
+      <c r="V112" s="1" t="n"/>
+      <c r="W112" s="1" t="n"/>
+      <c r="X112" s="1" t="n"/>
+      <c r="Y112" s="1" t="n"/>
+      <c r="Z112" s="1" t="n"/>
+    </row>
+    <row r="113" ht="15" customHeight="1">
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="1" t="n"/>
+      <c r="C113" s="1" t="n"/>
+      <c r="D113" s="1" t="n"/>
+      <c r="E113" s="1" t="n"/>
+      <c r="F113" s="1" t="n"/>
+      <c r="G113" s="1" t="n"/>
+      <c r="H113" s="1" t="n"/>
+      <c r="I113" s="1" t="n"/>
+      <c r="J113" s="1" t="n"/>
+      <c r="K113" s="1" t="n"/>
+      <c r="L113" s="1" t="n"/>
+      <c r="M113" s="1" t="n"/>
+      <c r="N113" s="1" t="n"/>
+      <c r="O113" s="1" t="n"/>
+      <c r="P113" s="1" t="n"/>
+      <c r="Q113" s="1" t="n"/>
+      <c r="R113" s="1" t="n"/>
+      <c r="S113" s="1" t="n"/>
+      <c r="T113" s="1" t="n"/>
+      <c r="U113" s="1" t="n"/>
+      <c r="V113" s="1" t="n"/>
+      <c r="W113" s="1" t="n"/>
+      <c r="X113" s="1" t="n"/>
+      <c r="Y113" s="1" t="n"/>
+      <c r="Z113" s="1" t="n"/>
+    </row>
+    <row r="114" ht="17" customHeight="1">
+      <c r="A114" s="138" t="inlineStr">
+        <is>
+          <t>サービス　4</t>
+        </is>
+      </c>
+      <c r="B114" s="139" t="inlineStr">
+        <is>
+          <t>援助項目</t>
+        </is>
+      </c>
+      <c r="C114" s="56" t="n"/>
+      <c r="D114" s="56" t="n"/>
+      <c r="E114" s="57" t="n"/>
+      <c r="F114" s="140" t="inlineStr">
+        <is>
+          <t>サービスの内容</t>
+        </is>
+      </c>
+      <c r="G114" s="56" t="n"/>
+      <c r="H114" s="56" t="n"/>
+      <c r="I114" s="57" t="n"/>
+      <c r="J114" s="139" t="inlineStr">
+        <is>
+          <t>留　意　事　項</t>
+        </is>
+      </c>
+      <c r="K114" s="56" t="n"/>
+      <c r="L114" s="57" t="n"/>
+      <c r="M114" s="1" t="n"/>
+      <c r="N114" s="1" t="n"/>
+      <c r="O114" s="1" t="n"/>
+      <c r="P114" s="1" t="n"/>
+      <c r="Q114" s="1" t="n"/>
+      <c r="R114" s="1" t="n"/>
+      <c r="S114" s="1" t="n"/>
+      <c r="T114" s="1" t="n"/>
+      <c r="U114" s="1" t="n"/>
+      <c r="V114" s="1" t="n"/>
+      <c r="W114" s="1" t="n"/>
+      <c r="X114" s="1" t="n"/>
+      <c r="Y114" s="1" t="n"/>
+      <c r="Z114" s="1" t="n"/>
+    </row>
+    <row r="115" ht="26" customHeight="1">
+      <c r="A115" s="141" t="n"/>
+      <c r="B115" s="142" t="n"/>
+      <c r="C115" s="143" t="n"/>
+      <c r="D115" s="143" t="n"/>
+      <c r="E115" s="144" t="n"/>
+      <c r="F115" s="145" t="n"/>
+      <c r="G115" s="146" t="n"/>
+      <c r="H115" s="146" t="n"/>
+      <c r="I115" s="147" t="n"/>
+      <c r="J115" s="148" t="n"/>
+      <c r="K115" s="143" t="n"/>
+      <c r="L115" s="149" t="n"/>
+      <c r="M115" s="1" t="n"/>
+      <c r="N115" s="1" t="n"/>
+      <c r="O115" s="1" t="n"/>
+      <c r="P115" s="1" t="n"/>
+      <c r="Q115" s="1" t="n"/>
+      <c r="R115" s="1" t="n"/>
+      <c r="S115" s="1" t="n"/>
+      <c r="T115" s="1" t="n"/>
+      <c r="U115" s="1" t="n"/>
+      <c r="V115" s="1" t="n"/>
+      <c r="W115" s="1" t="n"/>
+      <c r="X115" s="1" t="n"/>
+      <c r="Y115" s="1" t="n"/>
+      <c r="Z115" s="1" t="n"/>
+    </row>
+    <row r="116" ht="26" customHeight="1">
+      <c r="A116" s="141" t="n"/>
+      <c r="B116" s="150" t="n"/>
+      <c r="C116" s="41" t="n"/>
+      <c r="D116" s="41" t="n"/>
+      <c r="E116" s="151" t="n"/>
+      <c r="F116" s="150" t="n"/>
+      <c r="G116" s="41" t="n"/>
+      <c r="H116" s="41" t="n"/>
+      <c r="I116" s="151" t="n"/>
+      <c r="J116" s="152" t="n"/>
+      <c r="K116" s="41" t="n"/>
+      <c r="L116" s="42" t="n"/>
+      <c r="M116" s="1" t="n"/>
+      <c r="N116" s="1" t="n"/>
+      <c r="O116" s="1" t="n"/>
+      <c r="P116" s="1" t="n"/>
+      <c r="Q116" s="1" t="n"/>
+      <c r="R116" s="1" t="n"/>
+      <c r="S116" s="1" t="n"/>
+      <c r="T116" s="1" t="n"/>
+      <c r="U116" s="1" t="n"/>
+      <c r="V116" s="1" t="n"/>
+      <c r="W116" s="1" t="n"/>
+      <c r="X116" s="1" t="n"/>
+      <c r="Y116" s="1" t="n"/>
+      <c r="Z116" s="1" t="n"/>
+    </row>
+    <row r="117" ht="26" customHeight="1">
+      <c r="A117" s="141" t="n"/>
+      <c r="B117" s="150" t="n"/>
+      <c r="C117" s="41" t="n"/>
+      <c r="D117" s="41" t="n"/>
+      <c r="E117" s="151" t="n"/>
+      <c r="F117" s="150" t="n"/>
+      <c r="G117" s="41" t="n"/>
+      <c r="H117" s="41" t="n"/>
+      <c r="I117" s="151" t="n"/>
+      <c r="J117" s="152" t="n"/>
+      <c r="K117" s="41" t="n"/>
+      <c r="L117" s="42" t="n"/>
+      <c r="M117" s="1" t="n"/>
+      <c r="N117" s="1" t="n"/>
+      <c r="O117" s="1" t="n"/>
+      <c r="P117" s="1" t="n"/>
+      <c r="Q117" s="1" t="n"/>
+      <c r="R117" s="1" t="n"/>
+      <c r="S117" s="1" t="n"/>
+      <c r="T117" s="1" t="n"/>
+      <c r="U117" s="1" t="n"/>
+      <c r="V117" s="1" t="n"/>
+      <c r="W117" s="1" t="n"/>
+      <c r="X117" s="1" t="n"/>
+      <c r="Y117" s="1" t="n"/>
+      <c r="Z117" s="1" t="n"/>
+    </row>
+    <row r="118" ht="26" customHeight="1">
+      <c r="A118" s="141" t="n"/>
+      <c r="B118" s="150" t="n"/>
+      <c r="C118" s="41" t="n"/>
+      <c r="D118" s="41" t="n"/>
+      <c r="E118" s="151" t="n"/>
+      <c r="F118" s="150" t="n"/>
+      <c r="G118" s="41" t="n"/>
+      <c r="H118" s="41" t="n"/>
+      <c r="I118" s="151" t="n"/>
+      <c r="J118" s="152" t="n"/>
+      <c r="K118" s="41" t="n"/>
+      <c r="L118" s="42" t="n"/>
+      <c r="M118" s="1" t="n"/>
+      <c r="N118" s="1" t="n"/>
+      <c r="O118" s="1" t="n"/>
+      <c r="P118" s="1" t="n"/>
+      <c r="Q118" s="1" t="n"/>
+      <c r="R118" s="1" t="n"/>
+      <c r="S118" s="1" t="n"/>
+      <c r="T118" s="1" t="n"/>
+      <c r="U118" s="1" t="n"/>
+      <c r="V118" s="1" t="n"/>
+      <c r="W118" s="1" t="n"/>
+      <c r="X118" s="1" t="n"/>
+      <c r="Y118" s="1" t="n"/>
+      <c r="Z118" s="1" t="n"/>
+    </row>
+    <row r="119" ht="26" customHeight="1">
+      <c r="A119" s="141" t="n"/>
+      <c r="B119" s="150" t="n"/>
+      <c r="C119" s="41" t="n"/>
+      <c r="D119" s="41" t="n"/>
+      <c r="E119" s="151" t="n"/>
+      <c r="F119" s="150" t="n"/>
+      <c r="G119" s="41" t="n"/>
+      <c r="H119" s="41" t="n"/>
+      <c r="I119" s="151" t="n"/>
+      <c r="J119" s="152" t="n"/>
+      <c r="K119" s="41" t="n"/>
+      <c r="L119" s="42" t="n"/>
+      <c r="M119" s="1" t="n"/>
+      <c r="N119" s="1" t="n"/>
+      <c r="O119" s="1" t="n"/>
+      <c r="P119" s="1" t="n"/>
+      <c r="Q119" s="1" t="n"/>
+      <c r="R119" s="1" t="n"/>
+      <c r="S119" s="1" t="n"/>
+      <c r="T119" s="1" t="n"/>
+      <c r="U119" s="1" t="n"/>
+      <c r="V119" s="1" t="n"/>
+      <c r="W119" s="1" t="n"/>
+      <c r="X119" s="1" t="n"/>
+      <c r="Y119" s="1" t="n"/>
+      <c r="Z119" s="1" t="n"/>
+    </row>
+    <row r="120" ht="26" customHeight="1">
+      <c r="A120" s="141" t="n"/>
+      <c r="B120" s="150" t="n"/>
+      <c r="C120" s="41" t="n"/>
+      <c r="D120" s="41" t="n"/>
+      <c r="E120" s="151" t="n"/>
+      <c r="F120" s="153" t="n"/>
+      <c r="G120" s="41" t="n"/>
+      <c r="H120" s="41" t="n"/>
+      <c r="I120" s="151" t="n"/>
+      <c r="J120" s="154" t="n"/>
+      <c r="K120" s="41" t="n"/>
+      <c r="L120" s="42" t="n"/>
+      <c r="M120" s="1" t="n"/>
+      <c r="N120" s="1" t="n"/>
+      <c r="O120" s="1" t="n"/>
+      <c r="P120" s="1" t="n"/>
+      <c r="Q120" s="1" t="n"/>
+      <c r="R120" s="1" t="n"/>
+      <c r="S120" s="1" t="n"/>
+      <c r="T120" s="1" t="n"/>
+      <c r="U120" s="1" t="n"/>
+      <c r="V120" s="1" t="n"/>
+      <c r="W120" s="1" t="n"/>
+      <c r="X120" s="1" t="n"/>
+      <c r="Y120" s="1" t="n"/>
+      <c r="Z120" s="1" t="n"/>
+    </row>
+    <row r="121" ht="26" customHeight="1">
+      <c r="A121" s="141" t="n"/>
+      <c r="B121" s="150" t="n"/>
+      <c r="C121" s="41" t="n"/>
+      <c r="D121" s="41" t="n"/>
+      <c r="E121" s="151" t="n"/>
+      <c r="F121" s="155" t="n"/>
+      <c r="G121" s="41" t="n"/>
+      <c r="H121" s="41" t="n"/>
+      <c r="I121" s="151" t="n"/>
+      <c r="J121" s="154" t="n"/>
+      <c r="K121" s="41" t="n"/>
+      <c r="L121" s="42" t="n"/>
+      <c r="M121" s="1" t="n"/>
+      <c r="N121" s="1" t="n"/>
+      <c r="O121" s="1" t="n"/>
+      <c r="P121" s="1" t="n"/>
+      <c r="Q121" s="1" t="n"/>
+      <c r="R121" s="1" t="n"/>
+      <c r="S121" s="1" t="n"/>
+      <c r="T121" s="1" t="n"/>
+      <c r="U121" s="1" t="n"/>
+      <c r="V121" s="1" t="n"/>
+      <c r="W121" s="1" t="n"/>
+      <c r="X121" s="1" t="n"/>
+      <c r="Y121" s="1" t="n"/>
+      <c r="Z121" s="1" t="n"/>
+    </row>
+    <row r="122" ht="26" customHeight="1">
+      <c r="A122" s="141" t="n"/>
+      <c r="B122" s="150" t="n"/>
+      <c r="C122" s="41" t="n"/>
+      <c r="D122" s="41" t="n"/>
+      <c r="E122" s="151" t="n"/>
+      <c r="F122" s="159" t="n"/>
+      <c r="G122" s="157" t="n"/>
+      <c r="H122" s="157" t="n"/>
+      <c r="I122" s="157" t="n"/>
+      <c r="J122" s="160" t="n"/>
+      <c r="K122" s="157" t="n"/>
+      <c r="L122" s="161" t="n"/>
+      <c r="M122" s="1" t="n"/>
+      <c r="N122" s="1" t="n"/>
+      <c r="O122" s="1" t="n"/>
+      <c r="P122" s="1" t="n"/>
+      <c r="Q122" s="1" t="n"/>
+      <c r="R122" s="1" t="n"/>
+      <c r="S122" s="1" t="n"/>
+      <c r="T122" s="1" t="n"/>
+      <c r="U122" s="1" t="n"/>
+      <c r="V122" s="1" t="n"/>
+      <c r="W122" s="1" t="n"/>
+      <c r="X122" s="1" t="n"/>
+      <c r="Y122" s="1" t="n"/>
+      <c r="Z122" s="1" t="n"/>
+    </row>
+    <row r="123" ht="15" customHeight="1">
+      <c r="A123" s="162" t="inlineStr">
+        <is>
+          <t>種類</t>
+        </is>
+      </c>
+      <c r="B123" s="163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">□身体介護　　　　　</t>
+        </is>
+      </c>
+      <c r="C123" s="164" t="n"/>
+      <c r="D123" s="164" t="n"/>
+      <c r="E123" s="164" t="n"/>
+      <c r="F123" s="165" t="inlineStr">
+        <is>
+          <t>□家事援助</t>
+        </is>
+      </c>
+      <c r="G123" s="165" t="n"/>
+      <c r="H123" s="166" t="inlineStr">
+        <is>
+          <t>□重度訪問介護</t>
+        </is>
+      </c>
+      <c r="I123" s="167" t="n"/>
+      <c r="J123" s="168" t="inlineStr">
+        <is>
+          <t>介護者種別</t>
+        </is>
+      </c>
+      <c r="K123" s="169" t="n"/>
+      <c r="L123" s="170" t="n"/>
+      <c r="M123" s="1" t="n"/>
+      <c r="N123" s="1" t="n"/>
+      <c r="O123" s="1" t="n"/>
+      <c r="P123" s="1" t="n"/>
+      <c r="Q123" s="1" t="n"/>
+      <c r="R123" s="1" t="n"/>
+      <c r="S123" s="1" t="n"/>
+      <c r="T123" s="1" t="n"/>
+      <c r="U123" s="1" t="n"/>
+      <c r="V123" s="1" t="n"/>
+      <c r="W123" s="1" t="n"/>
+      <c r="X123" s="1" t="n"/>
+      <c r="Y123" s="1" t="n"/>
+      <c r="Z123" s="1" t="n"/>
+    </row>
+    <row r="124" ht="15" customHeight="1">
+      <c r="A124" s="141" t="n"/>
+      <c r="B124" s="171" t="inlineStr">
+        <is>
+          <t>□通院等介助(身体介護を伴う)</t>
+        </is>
+      </c>
+      <c r="C124" s="172" t="n"/>
+      <c r="D124" s="172" t="n"/>
+      <c r="E124" s="172" t="n"/>
+      <c r="F124" s="172" t="inlineStr">
+        <is>
+          <t>□通院等介助(身体介護を伴わない)</t>
+        </is>
+      </c>
+      <c r="G124" s="172" t="n"/>
+      <c r="H124" s="172" t="n"/>
+      <c r="I124" s="173" t="n"/>
+      <c r="J124" s="174" t="n"/>
+      <c r="K124" s="1" t="n"/>
+      <c r="L124" s="175" t="n"/>
+      <c r="M124" s="1" t="n"/>
+      <c r="N124" s="1" t="n"/>
+      <c r="O124" s="1" t="n"/>
+      <c r="P124" s="1" t="n"/>
+      <c r="Q124" s="1" t="n"/>
+      <c r="R124" s="1" t="n"/>
+      <c r="S124" s="1" t="n"/>
+      <c r="T124" s="1" t="n"/>
+      <c r="U124" s="1" t="n"/>
+      <c r="V124" s="1" t="n"/>
+      <c r="W124" s="1" t="n"/>
+      <c r="X124" s="1" t="n"/>
+      <c r="Y124" s="1" t="n"/>
+      <c r="Z124" s="1" t="n"/>
+    </row>
+    <row r="125" ht="16" customHeight="1">
+      <c r="A125" s="176" t="n"/>
+      <c r="B125" s="177" t="inlineStr">
+        <is>
+          <t>□通院等乗降介助</t>
+        </is>
+      </c>
+      <c r="C125" s="178" t="n"/>
+      <c r="D125" s="178" t="n"/>
+      <c r="E125" s="178" t="n"/>
+      <c r="F125" s="178" t="inlineStr">
+        <is>
+          <t>□行動援護</t>
+        </is>
+      </c>
+      <c r="G125" s="178" t="n"/>
+      <c r="H125" s="179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">□同行援護　　　</t>
+        </is>
+      </c>
+      <c r="I125" s="180" t="n"/>
+      <c r="J125" s="181" t="n"/>
+      <c r="K125" s="182" t="n"/>
+      <c r="L125" s="183" t="n"/>
+      <c r="M125" s="1" t="n"/>
+      <c r="N125" s="1" t="n"/>
+      <c r="O125" s="1" t="n"/>
+      <c r="P125" s="1" t="n"/>
+      <c r="Q125" s="1" t="n"/>
+      <c r="R125" s="1" t="n"/>
+      <c r="S125" s="1" t="n"/>
+      <c r="T125" s="1" t="n"/>
+      <c r="U125" s="1" t="n"/>
+      <c r="V125" s="1" t="n"/>
+      <c r="W125" s="1" t="n"/>
+      <c r="X125" s="1" t="n"/>
+      <c r="Y125" s="1" t="n"/>
+      <c r="Z125" s="1" t="n"/>
+    </row>
+    <row r="126" ht="70" customHeight="1">
+      <c r="A126" s="1" t="n"/>
+      <c r="B126" s="1" t="n"/>
+      <c r="C126" s="1" t="n"/>
+      <c r="D126" s="1" t="n"/>
+      <c r="E126" s="1" t="n"/>
+      <c r="F126" s="1" t="n"/>
+      <c r="G126" s="1" t="n"/>
+      <c r="H126" s="184" t="inlineStr">
+        <is>
+          <t>利用者確認印</t>
+        </is>
+      </c>
+      <c r="I126" s="185" t="n"/>
+      <c r="J126" s="186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　　　　　　　　　　　　㊞</t>
+        </is>
+      </c>
+      <c r="K126" s="187" t="n"/>
+      <c r="L126" s="188" t="n"/>
+      <c r="M126" s="1" t="n"/>
+      <c r="N126" s="1" t="n"/>
+      <c r="O126" s="1" t="n"/>
+      <c r="P126" s="1" t="n"/>
+      <c r="Q126" s="1" t="n"/>
+      <c r="R126" s="1" t="n"/>
+      <c r="S126" s="1" t="n"/>
+      <c r="T126" s="1" t="n"/>
+      <c r="U126" s="1" t="n"/>
+      <c r="V126" s="1" t="n"/>
+      <c r="W126" s="1" t="n"/>
+      <c r="X126" s="1" t="n"/>
+      <c r="Y126" s="1" t="n"/>
+      <c r="Z126" s="1" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A12:D14"/>
+  <mergeCells count="165">
+    <mergeCell ref="J117:L117"/>
+    <mergeCell ref="A75:A83"/>
     <mergeCell ref="V17:W17"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="J119:L119"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="J118:L118"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="J116:L116"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="A114:A122"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="J123:J125"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="J89:L89"/>
+    <mergeCell ref="F105:I105"/>
     <mergeCell ref="A8:D10"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="G4:J4"/>
     <mergeCell ref="O17:R17"/>
-    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J79:L79"/>
     <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="F107:I107"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J110:J112"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="J105:L105"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="J106:L106"/>
+    <mergeCell ref="J121:L121"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J115:L115"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="J126:L126"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="J122:L122"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="A88:A96"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="J108:L108"/>
     <mergeCell ref="A16:C18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="J95:L95"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="J104:L104"/>
     <mergeCell ref="D16:F16"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B97:E97"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="J109:L109"/>
     <mergeCell ref="O19:R19"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="J90:L90"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F89:I89"/>
     <mergeCell ref="A5:D6"/>
     <mergeCell ref="E8:K8"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="J76:L76"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="A12:D14"/>
+    <mergeCell ref="F102:I102"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="J114:L114"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B96:E96"/>
     <mergeCell ref="E5:F6"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="F104:I104"/>
+    <mergeCell ref="J120:L120"/>
+    <mergeCell ref="F106:I106"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="J93:L93"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="F90:I90"/>
     <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="H126:I126"/>
     <mergeCell ref="J17:K17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5125,1187 +7060,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="4.5" customWidth="1" min="1" max="1"/>
-    <col width="6.1640625" customWidth="1" min="2" max="2"/>
-    <col width="2.6640625" customWidth="1" min="3" max="3"/>
-    <col width="12.6640625" customWidth="1" min="4" max="4"/>
-    <col width="12.6640625" customWidth="1" min="5" max="5"/>
-    <col width="12.6640625" customWidth="1" min="6" max="6"/>
-    <col width="12.6640625" customWidth="1" min="7" max="7"/>
-    <col width="12.6640625" customWidth="1" min="8" max="8"/>
-    <col width="4.6640625" customWidth="1" min="9" max="9"/>
-    <col width="5.1640625" customWidth="1" min="10" max="10"/>
-    <col width="12.6640625" customWidth="1" min="11" max="11"/>
-    <col width="35" customWidth="1" min="12" max="12"/>
-    <col width="7.6640625" customWidth="1" min="13" max="13"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-    </row>
-    <row r="2" ht="25" customHeight="1">
-      <c r="A2" s="71" t="inlineStr">
-        <is>
-          <t>【サービス内容】</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="n"/>
-      <c r="F2" s="1" t="n"/>
-      <c r="G2" s="1" t="n"/>
-      <c r="H2" s="1" t="n"/>
-      <c r="I2" s="1" t="n"/>
-      <c r="J2" s="1" t="n"/>
-      <c r="K2" s="1" t="n"/>
-      <c r="L2" s="1" t="n"/>
-      <c r="M2" s="1" t="n"/>
-    </row>
-    <row r="3" ht="21" customHeight="1">
-      <c r="A3" s="143" t="inlineStr">
-        <is>
-          <t>サービス　1</t>
-        </is>
-      </c>
-      <c r="B3" s="144" t="inlineStr">
-        <is>
-          <t>援助項目</t>
-        </is>
-      </c>
-      <c r="C3" s="56" t="n"/>
-      <c r="D3" s="56" t="n"/>
-      <c r="E3" s="57" t="n"/>
-      <c r="F3" s="145" t="inlineStr">
-        <is>
-          <t>サービスの内容</t>
-        </is>
-      </c>
-      <c r="G3" s="56" t="n"/>
-      <c r="H3" s="56" t="n"/>
-      <c r="I3" s="57" t="n"/>
-      <c r="J3" s="144" t="inlineStr">
-        <is>
-          <t>留　意　事　項</t>
-        </is>
-      </c>
-      <c r="K3" s="56" t="n"/>
-      <c r="L3" s="57" t="n"/>
-      <c r="M3" s="9" t="n"/>
-    </row>
-    <row r="4" ht="23.25" customHeight="1">
-      <c r="A4" s="146" t="n"/>
-      <c r="B4" s="147" t="n"/>
-      <c r="C4" s="148" t="n"/>
-      <c r="D4" s="148" t="n"/>
-      <c r="E4" s="149" t="n"/>
-      <c r="F4" s="150" t="n"/>
-      <c r="G4" s="151" t="n"/>
-      <c r="H4" s="151" t="n"/>
-      <c r="I4" s="152" t="n"/>
-      <c r="J4" s="153" t="n"/>
-      <c r="K4" s="148" t="n"/>
-      <c r="L4" s="154" t="n"/>
-      <c r="M4" s="155" t="n"/>
-    </row>
-    <row r="5" ht="23.25" customHeight="1">
-      <c r="A5" s="146" t="n"/>
-      <c r="B5" s="156" t="n"/>
-      <c r="C5" s="41" t="n"/>
-      <c r="D5" s="41" t="n"/>
-      <c r="E5" s="157" t="n"/>
-      <c r="F5" s="156" t="n"/>
-      <c r="G5" s="41" t="n"/>
-      <c r="H5" s="41" t="n"/>
-      <c r="I5" s="157" t="n"/>
-      <c r="J5" s="158" t="n"/>
-      <c r="K5" s="41" t="n"/>
-      <c r="L5" s="42" t="n"/>
-      <c r="M5" s="155" t="n"/>
-    </row>
-    <row r="6" ht="23.25" customHeight="1">
-      <c r="A6" s="146" t="n"/>
-      <c r="B6" s="156" t="n"/>
-      <c r="C6" s="41" t="n"/>
-      <c r="D6" s="41" t="n"/>
-      <c r="E6" s="157" t="n"/>
-      <c r="F6" s="156" t="n"/>
-      <c r="G6" s="41" t="n"/>
-      <c r="H6" s="41" t="n"/>
-      <c r="I6" s="157" t="n"/>
-      <c r="J6" s="158" t="n"/>
-      <c r="K6" s="41" t="n"/>
-      <c r="L6" s="42" t="n"/>
-      <c r="M6" s="155" t="n"/>
-    </row>
-    <row r="7" ht="23.25" customHeight="1">
-      <c r="A7" s="146" t="n"/>
-      <c r="B7" s="156" t="n"/>
-      <c r="C7" s="41" t="n"/>
-      <c r="D7" s="41" t="n"/>
-      <c r="E7" s="157" t="n"/>
-      <c r="F7" s="156" t="n"/>
-      <c r="G7" s="41" t="n"/>
-      <c r="H7" s="41" t="n"/>
-      <c r="I7" s="157" t="n"/>
-      <c r="J7" s="158" t="n"/>
-      <c r="K7" s="41" t="n"/>
-      <c r="L7" s="42" t="n"/>
-      <c r="M7" s="155" t="n"/>
-    </row>
-    <row r="8" ht="23.25" customHeight="1">
-      <c r="A8" s="146" t="n"/>
-      <c r="B8" s="156" t="n"/>
-      <c r="C8" s="41" t="n"/>
-      <c r="D8" s="41" t="n"/>
-      <c r="E8" s="157" t="n"/>
-      <c r="F8" s="156" t="n"/>
-      <c r="G8" s="41" t="n"/>
-      <c r="H8" s="41" t="n"/>
-      <c r="I8" s="157" t="n"/>
-      <c r="J8" s="158" t="n"/>
-      <c r="K8" s="41" t="n"/>
-      <c r="L8" s="42" t="n"/>
-      <c r="M8" s="155" t="n"/>
-    </row>
-    <row r="9" ht="23.25" customHeight="1">
-      <c r="A9" s="146" t="n"/>
-      <c r="B9" s="156" t="n"/>
-      <c r="C9" s="41" t="n"/>
-      <c r="D9" s="41" t="n"/>
-      <c r="E9" s="157" t="n"/>
-      <c r="F9" s="159" t="n"/>
-      <c r="G9" s="41" t="n"/>
-      <c r="H9" s="41" t="n"/>
-      <c r="I9" s="157" t="n"/>
-      <c r="J9" s="160" t="n"/>
-      <c r="K9" s="41" t="n"/>
-      <c r="L9" s="42" t="n"/>
-      <c r="M9" s="155" t="n"/>
-    </row>
-    <row r="10" ht="23.25" customHeight="1">
-      <c r="A10" s="146" t="n"/>
-      <c r="B10" s="156" t="n"/>
-      <c r="C10" s="41" t="n"/>
-      <c r="D10" s="41" t="n"/>
-      <c r="E10" s="157" t="n"/>
-      <c r="F10" s="161" t="n"/>
-      <c r="G10" s="41" t="n"/>
-      <c r="H10" s="41" t="n"/>
-      <c r="I10" s="157" t="n"/>
-      <c r="J10" s="160" t="n"/>
-      <c r="K10" s="41" t="n"/>
-      <c r="L10" s="42" t="n"/>
-      <c r="M10" s="162" t="n"/>
-    </row>
-    <row r="11" ht="23.25" customHeight="1">
-      <c r="A11" s="146" t="n"/>
-      <c r="B11" s="156" t="n"/>
-      <c r="C11" s="41" t="n"/>
-      <c r="D11" s="41" t="n"/>
-      <c r="E11" s="157" t="n"/>
-      <c r="F11" s="163" t="n"/>
-      <c r="G11" s="164" t="n"/>
-      <c r="H11" s="164" t="n"/>
-      <c r="I11" s="164" t="n"/>
-      <c r="J11" s="165" t="n"/>
-      <c r="K11" s="164" t="n"/>
-      <c r="L11" s="166" t="n"/>
-      <c r="M11" s="155" t="n"/>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="A12" s="167" t="inlineStr">
-        <is>
-          <t>種類</t>
-        </is>
-      </c>
-      <c r="B12" s="168" t="inlineStr">
-        <is>
-          <t xml:space="preserve">□身体介護　　　　　</t>
-        </is>
-      </c>
-      <c r="C12" s="169" t="n"/>
-      <c r="D12" s="169" t="n"/>
-      <c r="E12" s="169" t="n"/>
-      <c r="F12" s="170" t="inlineStr">
-        <is>
-          <t>□家事援助</t>
-        </is>
-      </c>
-      <c r="G12" s="170" t="n"/>
-      <c r="H12" s="171" t="inlineStr">
-        <is>
-          <t>□重度訪問介護</t>
-        </is>
-      </c>
-      <c r="I12" s="172" t="n"/>
-      <c r="J12" s="173" t="inlineStr">
-        <is>
-          <t>介護者種別</t>
-        </is>
-      </c>
-      <c r="K12" s="174" t="n"/>
-      <c r="L12" s="175" t="n"/>
-      <c r="M12" s="27" t="n"/>
-    </row>
-    <row r="13" ht="25.5" customHeight="1">
-      <c r="A13" s="146" t="n"/>
-      <c r="B13" s="176" t="inlineStr">
-        <is>
-          <t>□通院等介助(身体介護を伴う)</t>
-        </is>
-      </c>
-      <c r="C13" s="177" t="n"/>
-      <c r="D13" s="177" t="n"/>
-      <c r="E13" s="177" t="n"/>
-      <c r="F13" s="177" t="inlineStr">
-        <is>
-          <t>□通院等介助(身体介護を伴わない)</t>
-        </is>
-      </c>
-      <c r="G13" s="177" t="n"/>
-      <c r="H13" s="177" t="n"/>
-      <c r="I13" s="178" t="n"/>
-      <c r="J13" s="179" t="n"/>
-      <c r="K13" s="1" t="n"/>
-      <c r="L13" s="180" t="n"/>
-      <c r="M13" s="27" t="n"/>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="A14" s="181" t="n"/>
-      <c r="B14" s="182" t="inlineStr">
-        <is>
-          <t>□通院等乗降介助</t>
-        </is>
-      </c>
-      <c r="C14" s="183" t="n"/>
-      <c r="D14" s="183" t="n"/>
-      <c r="E14" s="183" t="n"/>
-      <c r="F14" s="183" t="inlineStr">
-        <is>
-          <t>□行動援護</t>
-        </is>
-      </c>
-      <c r="G14" s="183" t="n"/>
-      <c r="H14" s="184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">□同行援護　　　</t>
-        </is>
-      </c>
-      <c r="I14" s="185" t="n"/>
-      <c r="J14" s="186" t="n"/>
-      <c r="K14" s="187" t="n"/>
-      <c r="L14" s="188" t="n"/>
-      <c r="M14" s="27" t="n"/>
-    </row>
-    <row r="15" ht="11.25" customHeight="1">
-      <c r="A15" s="49" t="n"/>
-      <c r="B15" s="27" t="n"/>
-      <c r="C15" s="27" t="n"/>
-      <c r="D15" s="27" t="n"/>
-      <c r="E15" s="27" t="n"/>
-      <c r="F15" s="60" t="n"/>
-      <c r="G15" s="27" t="n"/>
-      <c r="H15" s="27" t="n"/>
-      <c r="I15" s="27" t="n"/>
-      <c r="J15" s="27" t="n"/>
-      <c r="K15" s="27" t="n"/>
-      <c r="L15" s="27" t="n"/>
-      <c r="M15" s="27" t="n"/>
-    </row>
-    <row r="16" ht="20.25" customHeight="1">
-      <c r="A16" s="143" t="inlineStr">
-        <is>
-          <t>サービス　2</t>
-        </is>
-      </c>
-      <c r="B16" s="144" t="inlineStr">
-        <is>
-          <t>援助項目</t>
-        </is>
-      </c>
-      <c r="C16" s="56" t="n"/>
-      <c r="D16" s="56" t="n"/>
-      <c r="E16" s="57" t="n"/>
-      <c r="F16" s="145" t="inlineStr">
-        <is>
-          <t>サービスの内容</t>
-        </is>
-      </c>
-      <c r="G16" s="56" t="n"/>
-      <c r="H16" s="56" t="n"/>
-      <c r="I16" s="57" t="n"/>
-      <c r="J16" s="144" t="inlineStr">
-        <is>
-          <t>留　意　事　項</t>
-        </is>
-      </c>
-      <c r="K16" s="56" t="n"/>
-      <c r="L16" s="57" t="n"/>
-      <c r="M16" s="9" t="n"/>
-    </row>
-    <row r="17" ht="23.25" customHeight="1">
-      <c r="A17" s="146" t="n"/>
-      <c r="B17" s="147" t="n"/>
-      <c r="C17" s="148" t="n"/>
-      <c r="D17" s="148" t="n"/>
-      <c r="E17" s="149" t="n"/>
-      <c r="F17" s="150" t="n"/>
-      <c r="G17" s="151" t="n"/>
-      <c r="H17" s="151" t="n"/>
-      <c r="I17" s="152" t="n"/>
-      <c r="J17" s="153" t="n"/>
-      <c r="K17" s="148" t="n"/>
-      <c r="L17" s="154" t="n"/>
-      <c r="M17" s="155" t="n"/>
-    </row>
-    <row r="18" ht="23.25" customHeight="1">
-      <c r="A18" s="146" t="n"/>
-      <c r="B18" s="156" t="n"/>
-      <c r="C18" s="41" t="n"/>
-      <c r="D18" s="41" t="n"/>
-      <c r="E18" s="157" t="n"/>
-      <c r="F18" s="156" t="n"/>
-      <c r="G18" s="41" t="n"/>
-      <c r="H18" s="41" t="n"/>
-      <c r="I18" s="157" t="n"/>
-      <c r="J18" s="158" t="n"/>
-      <c r="K18" s="41" t="n"/>
-      <c r="L18" s="42" t="n"/>
-      <c r="M18" s="155" t="n"/>
-    </row>
-    <row r="19" ht="23.25" customHeight="1">
-      <c r="A19" s="146" t="n"/>
-      <c r="B19" s="156" t="n"/>
-      <c r="C19" s="41" t="n"/>
-      <c r="D19" s="41" t="n"/>
-      <c r="E19" s="157" t="n"/>
-      <c r="F19" s="156" t="n"/>
-      <c r="G19" s="41" t="n"/>
-      <c r="H19" s="41" t="n"/>
-      <c r="I19" s="157" t="n"/>
-      <c r="J19" s="158" t="n"/>
-      <c r="K19" s="41" t="n"/>
-      <c r="L19" s="42" t="n"/>
-      <c r="M19" s="155" t="n"/>
-    </row>
-    <row r="20" ht="23.25" customHeight="1">
-      <c r="A20" s="146" t="n"/>
-      <c r="B20" s="156" t="n"/>
-      <c r="C20" s="41" t="n"/>
-      <c r="D20" s="41" t="n"/>
-      <c r="E20" s="157" t="n"/>
-      <c r="F20" s="156" t="n"/>
-      <c r="G20" s="41" t="n"/>
-      <c r="H20" s="41" t="n"/>
-      <c r="I20" s="157" t="n"/>
-      <c r="J20" s="158" t="n"/>
-      <c r="K20" s="41" t="n"/>
-      <c r="L20" s="42" t="n"/>
-      <c r="M20" s="155" t="n"/>
-    </row>
-    <row r="21" ht="23.25" customHeight="1">
-      <c r="A21" s="146" t="n"/>
-      <c r="B21" s="156" t="n"/>
-      <c r="C21" s="41" t="n"/>
-      <c r="D21" s="41" t="n"/>
-      <c r="E21" s="157" t="n"/>
-      <c r="F21" s="156" t="n"/>
-      <c r="G21" s="41" t="n"/>
-      <c r="H21" s="41" t="n"/>
-      <c r="I21" s="157" t="n"/>
-      <c r="J21" s="158" t="n"/>
-      <c r="K21" s="41" t="n"/>
-      <c r="L21" s="42" t="n"/>
-      <c r="M21" s="155" t="n"/>
-    </row>
-    <row r="22" ht="23.25" customHeight="1">
-      <c r="A22" s="146" t="n"/>
-      <c r="B22" s="156" t="n"/>
-      <c r="C22" s="41" t="n"/>
-      <c r="D22" s="41" t="n"/>
-      <c r="E22" s="157" t="n"/>
-      <c r="F22" s="159" t="n"/>
-      <c r="G22" s="41" t="n"/>
-      <c r="H22" s="41" t="n"/>
-      <c r="I22" s="157" t="n"/>
-      <c r="J22" s="160" t="n"/>
-      <c r="K22" s="41" t="n"/>
-      <c r="L22" s="42" t="n"/>
-      <c r="M22" s="155" t="n"/>
-    </row>
-    <row r="23" ht="23.25" customHeight="1">
-      <c r="A23" s="146" t="n"/>
-      <c r="B23" s="156" t="n"/>
-      <c r="C23" s="41" t="n"/>
-      <c r="D23" s="41" t="n"/>
-      <c r="E23" s="157" t="n"/>
-      <c r="F23" s="161" t="n"/>
-      <c r="G23" s="41" t="n"/>
-      <c r="H23" s="41" t="n"/>
-      <c r="I23" s="157" t="n"/>
-      <c r="J23" s="160" t="n"/>
-      <c r="K23" s="41" t="n"/>
-      <c r="L23" s="42" t="n"/>
-      <c r="M23" s="162" t="n"/>
-    </row>
-    <row r="24" ht="23.25" customHeight="1">
-      <c r="A24" s="146" t="n"/>
-      <c r="B24" s="156" t="n"/>
-      <c r="C24" s="41" t="n"/>
-      <c r="D24" s="41" t="n"/>
-      <c r="E24" s="157" t="n"/>
-      <c r="F24" s="163" t="n"/>
-      <c r="G24" s="164" t="n"/>
-      <c r="H24" s="164" t="n"/>
-      <c r="I24" s="164" t="n"/>
-      <c r="J24" s="165" t="n"/>
-      <c r="K24" s="164" t="n"/>
-      <c r="L24" s="166" t="n"/>
-      <c r="M24" s="155" t="n"/>
-    </row>
-    <row r="25" ht="25.5" customHeight="1">
-      <c r="A25" s="167" t="inlineStr">
-        <is>
-          <t>種類</t>
-        </is>
-      </c>
-      <c r="B25" s="168" t="inlineStr">
-        <is>
-          <t xml:space="preserve">□身体介護　　　　　</t>
-        </is>
-      </c>
-      <c r="C25" s="169" t="n"/>
-      <c r="D25" s="169" t="n"/>
-      <c r="E25" s="169" t="n"/>
-      <c r="F25" s="170" t="inlineStr">
-        <is>
-          <t>□家事援助</t>
-        </is>
-      </c>
-      <c r="G25" s="170" t="n"/>
-      <c r="H25" s="171" t="inlineStr">
-        <is>
-          <t>□重度訪問介護</t>
-        </is>
-      </c>
-      <c r="I25" s="172" t="n"/>
-      <c r="J25" s="173" t="inlineStr">
-        <is>
-          <t>介護者種別</t>
-        </is>
-      </c>
-      <c r="K25" s="174" t="n"/>
-      <c r="L25" s="175" t="n"/>
-      <c r="M25" s="27" t="n"/>
-    </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="A26" s="146" t="n"/>
-      <c r="B26" s="176" t="inlineStr">
-        <is>
-          <t>□通院等介助(身体介護を伴う)</t>
-        </is>
-      </c>
-      <c r="C26" s="177" t="n"/>
-      <c r="D26" s="177" t="n"/>
-      <c r="E26" s="177" t="n"/>
-      <c r="F26" s="177" t="inlineStr">
-        <is>
-          <t>□通院等介助(身体介護を伴わない)</t>
-        </is>
-      </c>
-      <c r="G26" s="177" t="n"/>
-      <c r="H26" s="177" t="n"/>
-      <c r="I26" s="178" t="n"/>
-      <c r="J26" s="179" t="n"/>
-      <c r="K26" s="1" t="n"/>
-      <c r="L26" s="180" t="n"/>
-      <c r="M26" s="27" t="n"/>
-    </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="A27" s="181" t="n"/>
-      <c r="B27" s="182" t="inlineStr">
-        <is>
-          <t>□通院等乗降介助</t>
-        </is>
-      </c>
-      <c r="C27" s="183" t="n"/>
-      <c r="D27" s="183" t="n"/>
-      <c r="E27" s="183" t="n"/>
-      <c r="F27" s="183" t="inlineStr">
-        <is>
-          <t>□行動援護</t>
-        </is>
-      </c>
-      <c r="G27" s="183" t="n"/>
-      <c r="H27" s="184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">□同行援護　　　</t>
-        </is>
-      </c>
-      <c r="I27" s="185" t="n"/>
-      <c r="J27" s="186" t="n"/>
-      <c r="K27" s="187" t="n"/>
-      <c r="L27" s="188" t="n"/>
-      <c r="M27" s="27" t="n"/>
-    </row>
-    <row r="28" ht="12" customHeight="1">
-      <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="n"/>
-      <c r="D28" s="1" t="n"/>
-      <c r="E28" s="1" t="n"/>
-      <c r="F28" s="1" t="n"/>
-      <c r="G28" s="1" t="n"/>
-      <c r="H28" s="1" t="n"/>
-      <c r="I28" s="1" t="n"/>
-      <c r="J28" s="1" t="n"/>
-      <c r="K28" s="1" t="n"/>
-      <c r="L28" s="1" t="n"/>
-      <c r="M28" s="1" t="n"/>
-    </row>
-    <row r="29" ht="21" customHeight="1">
-      <c r="A29" s="143" t="inlineStr">
-        <is>
-          <t>サービス　3</t>
-        </is>
-      </c>
-      <c r="B29" s="144" t="inlineStr">
-        <is>
-          <t>援助項目</t>
-        </is>
-      </c>
-      <c r="C29" s="56" t="n"/>
-      <c r="D29" s="56" t="n"/>
-      <c r="E29" s="57" t="n"/>
-      <c r="F29" s="145" t="inlineStr">
-        <is>
-          <t>サービスの内容</t>
-        </is>
-      </c>
-      <c r="G29" s="56" t="n"/>
-      <c r="H29" s="56" t="n"/>
-      <c r="I29" s="57" t="n"/>
-      <c r="J29" s="144" t="inlineStr">
-        <is>
-          <t>留　意　事　項</t>
-        </is>
-      </c>
-      <c r="K29" s="56" t="n"/>
-      <c r="L29" s="57" t="n"/>
-      <c r="M29" s="9" t="n"/>
-    </row>
-    <row r="30" ht="23.25" customHeight="1">
-      <c r="A30" s="146" t="n"/>
-      <c r="B30" s="147" t="n"/>
-      <c r="C30" s="148" t="n"/>
-      <c r="D30" s="148" t="n"/>
-      <c r="E30" s="149" t="n"/>
-      <c r="F30" s="150" t="n"/>
-      <c r="G30" s="151" t="n"/>
-      <c r="H30" s="151" t="n"/>
-      <c r="I30" s="152" t="n"/>
-      <c r="J30" s="153" t="n"/>
-      <c r="K30" s="148" t="n"/>
-      <c r="L30" s="154" t="n"/>
-      <c r="M30" s="155" t="n"/>
-    </row>
-    <row r="31" ht="23.25" customHeight="1">
-      <c r="A31" s="146" t="n"/>
-      <c r="B31" s="156" t="n"/>
-      <c r="C31" s="41" t="n"/>
-      <c r="D31" s="41" t="n"/>
-      <c r="E31" s="157" t="n"/>
-      <c r="F31" s="156" t="n"/>
-      <c r="G31" s="41" t="n"/>
-      <c r="H31" s="41" t="n"/>
-      <c r="I31" s="157" t="n"/>
-      <c r="J31" s="158" t="n"/>
-      <c r="K31" s="41" t="n"/>
-      <c r="L31" s="42" t="n"/>
-      <c r="M31" s="155" t="n"/>
-    </row>
-    <row r="32" ht="23.25" customHeight="1">
-      <c r="A32" s="146" t="n"/>
-      <c r="B32" s="156" t="n"/>
-      <c r="C32" s="41" t="n"/>
-      <c r="D32" s="41" t="n"/>
-      <c r="E32" s="157" t="n"/>
-      <c r="F32" s="156" t="n"/>
-      <c r="G32" s="41" t="n"/>
-      <c r="H32" s="41" t="n"/>
-      <c r="I32" s="157" t="n"/>
-      <c r="J32" s="158" t="n"/>
-      <c r="K32" s="41" t="n"/>
-      <c r="L32" s="42" t="n"/>
-      <c r="M32" s="155" t="n"/>
-    </row>
-    <row r="33" ht="23.25" customHeight="1">
-      <c r="A33" s="146" t="n"/>
-      <c r="B33" s="156" t="n"/>
-      <c r="C33" s="41" t="n"/>
-      <c r="D33" s="41" t="n"/>
-      <c r="E33" s="157" t="n"/>
-      <c r="F33" s="156" t="n"/>
-      <c r="G33" s="41" t="n"/>
-      <c r="H33" s="41" t="n"/>
-      <c r="I33" s="157" t="n"/>
-      <c r="J33" s="158" t="n"/>
-      <c r="K33" s="41" t="n"/>
-      <c r="L33" s="42" t="n"/>
-      <c r="M33" s="155" t="n"/>
-    </row>
-    <row r="34" ht="23.25" customHeight="1">
-      <c r="A34" s="146" t="n"/>
-      <c r="B34" s="156" t="n"/>
-      <c r="C34" s="41" t="n"/>
-      <c r="D34" s="41" t="n"/>
-      <c r="E34" s="157" t="n"/>
-      <c r="F34" s="156" t="n"/>
-      <c r="G34" s="41" t="n"/>
-      <c r="H34" s="41" t="n"/>
-      <c r="I34" s="157" t="n"/>
-      <c r="J34" s="158" t="n"/>
-      <c r="K34" s="41" t="n"/>
-      <c r="L34" s="42" t="n"/>
-      <c r="M34" s="155" t="n"/>
-    </row>
-    <row r="35" ht="23.25" customHeight="1">
-      <c r="A35" s="146" t="n"/>
-      <c r="B35" s="156" t="n"/>
-      <c r="C35" s="41" t="n"/>
-      <c r="D35" s="41" t="n"/>
-      <c r="E35" s="157" t="n"/>
-      <c r="F35" s="159" t="n"/>
-      <c r="G35" s="41" t="n"/>
-      <c r="H35" s="41" t="n"/>
-      <c r="I35" s="157" t="n"/>
-      <c r="J35" s="160" t="n"/>
-      <c r="K35" s="41" t="n"/>
-      <c r="L35" s="42" t="n"/>
-      <c r="M35" s="155" t="n"/>
-    </row>
-    <row r="36" ht="23.25" customHeight="1">
-      <c r="A36" s="146" t="n"/>
-      <c r="B36" s="156" t="n"/>
-      <c r="C36" s="41" t="n"/>
-      <c r="D36" s="41" t="n"/>
-      <c r="E36" s="157" t="n"/>
-      <c r="F36" s="161" t="n"/>
-      <c r="G36" s="41" t="n"/>
-      <c r="H36" s="41" t="n"/>
-      <c r="I36" s="157" t="n"/>
-      <c r="J36" s="160" t="n"/>
-      <c r="K36" s="41" t="n"/>
-      <c r="L36" s="42" t="n"/>
-      <c r="M36" s="162" t="n"/>
-    </row>
-    <row r="37" ht="23.25" customHeight="1">
-      <c r="A37" s="146" t="n"/>
-      <c r="B37" s="156" t="n"/>
-      <c r="C37" s="41" t="n"/>
-      <c r="D37" s="41" t="n"/>
-      <c r="E37" s="157" t="n"/>
-      <c r="F37" s="163" t="n"/>
-      <c r="G37" s="164" t="n"/>
-      <c r="H37" s="164" t="n"/>
-      <c r="I37" s="164" t="n"/>
-      <c r="J37" s="165" t="n"/>
-      <c r="K37" s="164" t="n"/>
-      <c r="L37" s="166" t="n"/>
-      <c r="M37" s="155" t="n"/>
-    </row>
-    <row r="38" ht="25.5" customHeight="1">
-      <c r="A38" s="167" t="inlineStr">
-        <is>
-          <t>種類</t>
-        </is>
-      </c>
-      <c r="B38" s="168" t="inlineStr">
-        <is>
-          <t xml:space="preserve">□身体介護　　　　　</t>
-        </is>
-      </c>
-      <c r="C38" s="169" t="n"/>
-      <c r="D38" s="169" t="n"/>
-      <c r="E38" s="169" t="n"/>
-      <c r="F38" s="170" t="inlineStr">
-        <is>
-          <t>□家事援助</t>
-        </is>
-      </c>
-      <c r="G38" s="170" t="n"/>
-      <c r="H38" s="171" t="inlineStr">
-        <is>
-          <t>□重度訪問介護</t>
-        </is>
-      </c>
-      <c r="I38" s="172" t="n"/>
-      <c r="J38" s="173" t="inlineStr">
-        <is>
-          <t>介護者種別</t>
-        </is>
-      </c>
-      <c r="K38" s="174" t="n"/>
-      <c r="L38" s="175" t="n"/>
-      <c r="M38" s="27" t="n"/>
-    </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="A39" s="146" t="n"/>
-      <c r="B39" s="176" t="inlineStr">
-        <is>
-          <t>□通院等介助(身体介護を伴う)</t>
-        </is>
-      </c>
-      <c r="C39" s="177" t="n"/>
-      <c r="D39" s="177" t="n"/>
-      <c r="E39" s="177" t="n"/>
-      <c r="F39" s="177" t="inlineStr">
-        <is>
-          <t>□通院等介助(身体介護を伴わない)</t>
-        </is>
-      </c>
-      <c r="G39" s="177" t="n"/>
-      <c r="H39" s="177" t="n"/>
-      <c r="I39" s="178" t="n"/>
-      <c r="J39" s="179" t="n"/>
-      <c r="K39" s="1" t="n"/>
-      <c r="L39" s="180" t="n"/>
-      <c r="M39" s="27" t="n"/>
-    </row>
-    <row r="40" ht="25.5" customHeight="1">
-      <c r="A40" s="181" t="n"/>
-      <c r="B40" s="182" t="inlineStr">
-        <is>
-          <t>□通院等乗降介助</t>
-        </is>
-      </c>
-      <c r="C40" s="183" t="n"/>
-      <c r="D40" s="183" t="n"/>
-      <c r="E40" s="183" t="n"/>
-      <c r="F40" s="183" t="inlineStr">
-        <is>
-          <t>□行動援護</t>
-        </is>
-      </c>
-      <c r="G40" s="183" t="n"/>
-      <c r="H40" s="184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">□同行援護　　　</t>
-        </is>
-      </c>
-      <c r="I40" s="185" t="n"/>
-      <c r="J40" s="186" t="n"/>
-      <c r="K40" s="187" t="n"/>
-      <c r="L40" s="188" t="n"/>
-      <c r="M40" s="27" t="n"/>
-    </row>
-    <row r="41" ht="12" customHeight="1">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n"/>
-      <c r="D41" s="1" t="n"/>
-      <c r="E41" s="1" t="n"/>
-      <c r="F41" s="1" t="n"/>
-      <c r="G41" s="1" t="n"/>
-      <c r="H41" s="1" t="n"/>
-      <c r="I41" s="1" t="n"/>
-      <c r="J41" s="1" t="n"/>
-      <c r="K41" s="1" t="n"/>
-      <c r="L41" s="1" t="n"/>
-      <c r="M41" s="1" t="n"/>
-    </row>
-    <row r="42" ht="21.75" customHeight="1">
-      <c r="A42" s="143" t="inlineStr">
-        <is>
-          <t>サービス　4</t>
-        </is>
-      </c>
-      <c r="B42" s="144" t="inlineStr">
-        <is>
-          <t>援助項目</t>
-        </is>
-      </c>
-      <c r="C42" s="56" t="n"/>
-      <c r="D42" s="56" t="n"/>
-      <c r="E42" s="57" t="n"/>
-      <c r="F42" s="145" t="inlineStr">
-        <is>
-          <t>サービスの内容</t>
-        </is>
-      </c>
-      <c r="G42" s="56" t="n"/>
-      <c r="H42" s="56" t="n"/>
-      <c r="I42" s="57" t="n"/>
-      <c r="J42" s="144" t="inlineStr">
-        <is>
-          <t>留　意　事　項</t>
-        </is>
-      </c>
-      <c r="K42" s="56" t="n"/>
-      <c r="L42" s="57" t="n"/>
-      <c r="M42" s="9" t="n"/>
-    </row>
-    <row r="43" ht="23.25" customHeight="1">
-      <c r="A43" s="146" t="n"/>
-      <c r="B43" s="147" t="n"/>
-      <c r="C43" s="148" t="n"/>
-      <c r="D43" s="148" t="n"/>
-      <c r="E43" s="149" t="n"/>
-      <c r="F43" s="150" t="n"/>
-      <c r="G43" s="151" t="n"/>
-      <c r="H43" s="151" t="n"/>
-      <c r="I43" s="152" t="n"/>
-      <c r="J43" s="153" t="n"/>
-      <c r="K43" s="148" t="n"/>
-      <c r="L43" s="154" t="n"/>
-      <c r="M43" s="155" t="n"/>
-    </row>
-    <row r="44" ht="23.25" customHeight="1">
-      <c r="A44" s="146" t="n"/>
-      <c r="B44" s="156" t="n"/>
-      <c r="C44" s="41" t="n"/>
-      <c r="D44" s="41" t="n"/>
-      <c r="E44" s="157" t="n"/>
-      <c r="F44" s="156" t="n"/>
-      <c r="G44" s="41" t="n"/>
-      <c r="H44" s="41" t="n"/>
-      <c r="I44" s="157" t="n"/>
-      <c r="J44" s="158" t="n"/>
-      <c r="K44" s="41" t="n"/>
-      <c r="L44" s="42" t="n"/>
-      <c r="M44" s="155" t="n"/>
-    </row>
-    <row r="45" ht="23.25" customHeight="1">
-      <c r="A45" s="146" t="n"/>
-      <c r="B45" s="156" t="n"/>
-      <c r="C45" s="41" t="n"/>
-      <c r="D45" s="41" t="n"/>
-      <c r="E45" s="157" t="n"/>
-      <c r="F45" s="156" t="n"/>
-      <c r="G45" s="41" t="n"/>
-      <c r="H45" s="41" t="n"/>
-      <c r="I45" s="157" t="n"/>
-      <c r="J45" s="158" t="n"/>
-      <c r="K45" s="41" t="n"/>
-      <c r="L45" s="42" t="n"/>
-      <c r="M45" s="155" t="n"/>
-    </row>
-    <row r="46" ht="23.25" customHeight="1">
-      <c r="A46" s="146" t="n"/>
-      <c r="B46" s="156" t="n"/>
-      <c r="C46" s="41" t="n"/>
-      <c r="D46" s="41" t="n"/>
-      <c r="E46" s="157" t="n"/>
-      <c r="F46" s="156" t="n"/>
-      <c r="G46" s="41" t="n"/>
-      <c r="H46" s="41" t="n"/>
-      <c r="I46" s="157" t="n"/>
-      <c r="J46" s="158" t="n"/>
-      <c r="K46" s="41" t="n"/>
-      <c r="L46" s="42" t="n"/>
-      <c r="M46" s="155" t="n"/>
-    </row>
-    <row r="47" ht="23.25" customHeight="1">
-      <c r="A47" s="146" t="n"/>
-      <c r="B47" s="156" t="n"/>
-      <c r="C47" s="41" t="n"/>
-      <c r="D47" s="41" t="n"/>
-      <c r="E47" s="157" t="n"/>
-      <c r="F47" s="156" t="n"/>
-      <c r="G47" s="41" t="n"/>
-      <c r="H47" s="41" t="n"/>
-      <c r="I47" s="157" t="n"/>
-      <c r="J47" s="158" t="n"/>
-      <c r="K47" s="41" t="n"/>
-      <c r="L47" s="42" t="n"/>
-      <c r="M47" s="155" t="n"/>
-    </row>
-    <row r="48" ht="23.25" customHeight="1">
-      <c r="A48" s="146" t="n"/>
-      <c r="B48" s="156" t="n"/>
-      <c r="C48" s="41" t="n"/>
-      <c r="D48" s="41" t="n"/>
-      <c r="E48" s="157" t="n"/>
-      <c r="F48" s="159" t="n"/>
-      <c r="G48" s="41" t="n"/>
-      <c r="H48" s="41" t="n"/>
-      <c r="I48" s="157" t="n"/>
-      <c r="J48" s="160" t="n"/>
-      <c r="K48" s="41" t="n"/>
-      <c r="L48" s="42" t="n"/>
-      <c r="M48" s="155" t="n"/>
-    </row>
-    <row r="49" ht="23.25" customHeight="1">
-      <c r="A49" s="146" t="n"/>
-      <c r="B49" s="156" t="n"/>
-      <c r="C49" s="41" t="n"/>
-      <c r="D49" s="41" t="n"/>
-      <c r="E49" s="157" t="n"/>
-      <c r="F49" s="161" t="n"/>
-      <c r="G49" s="41" t="n"/>
-      <c r="H49" s="41" t="n"/>
-      <c r="I49" s="157" t="n"/>
-      <c r="J49" s="160" t="n"/>
-      <c r="K49" s="41" t="n"/>
-      <c r="L49" s="42" t="n"/>
-      <c r="M49" s="162" t="n"/>
-    </row>
-    <row r="50" ht="23.25" customHeight="1">
-      <c r="A50" s="146" t="n"/>
-      <c r="B50" s="156" t="n"/>
-      <c r="C50" s="41" t="n"/>
-      <c r="D50" s="41" t="n"/>
-      <c r="E50" s="157" t="n"/>
-      <c r="F50" s="163" t="n"/>
-      <c r="G50" s="164" t="n"/>
-      <c r="H50" s="164" t="n"/>
-      <c r="I50" s="164" t="n"/>
-      <c r="J50" s="165" t="n"/>
-      <c r="K50" s="164" t="n"/>
-      <c r="L50" s="166" t="n"/>
-      <c r="M50" s="155" t="n"/>
-    </row>
-    <row r="51" ht="25.5" customHeight="1">
-      <c r="A51" s="167" t="inlineStr">
-        <is>
-          <t>種類</t>
-        </is>
-      </c>
-      <c r="B51" s="168" t="inlineStr">
-        <is>
-          <t xml:space="preserve">□身体介護　　　　　</t>
-        </is>
-      </c>
-      <c r="C51" s="169" t="n"/>
-      <c r="D51" s="169" t="n"/>
-      <c r="E51" s="169" t="n"/>
-      <c r="F51" s="170" t="inlineStr">
-        <is>
-          <t>□家事援助</t>
-        </is>
-      </c>
-      <c r="G51" s="170" t="n"/>
-      <c r="H51" s="171" t="inlineStr">
-        <is>
-          <t>□重度訪問介護</t>
-        </is>
-      </c>
-      <c r="I51" s="172" t="n"/>
-      <c r="J51" s="173" t="inlineStr">
-        <is>
-          <t>介護者種別</t>
-        </is>
-      </c>
-      <c r="K51" s="174" t="n"/>
-      <c r="L51" s="175" t="n"/>
-      <c r="M51" s="27" t="n"/>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="A52" s="146" t="n"/>
-      <c r="B52" s="176" t="inlineStr">
-        <is>
-          <t>□通院等介助(身体介護を伴う)</t>
-        </is>
-      </c>
-      <c r="C52" s="177" t="n"/>
-      <c r="D52" s="177" t="n"/>
-      <c r="E52" s="177" t="n"/>
-      <c r="F52" s="177" t="inlineStr">
-        <is>
-          <t>□通院等介助(身体介護を伴わない)</t>
-        </is>
-      </c>
-      <c r="G52" s="177" t="n"/>
-      <c r="H52" s="177" t="n"/>
-      <c r="I52" s="178" t="n"/>
-      <c r="J52" s="179" t="n"/>
-      <c r="K52" s="1" t="n"/>
-      <c r="L52" s="180" t="n"/>
-      <c r="M52" s="27" t="n"/>
-    </row>
-    <row r="53" ht="25.5" customHeight="1">
-      <c r="A53" s="181" t="n"/>
-      <c r="B53" s="182" t="inlineStr">
-        <is>
-          <t>□通院等乗降介助</t>
-        </is>
-      </c>
-      <c r="C53" s="183" t="n"/>
-      <c r="D53" s="183" t="n"/>
-      <c r="E53" s="183" t="n"/>
-      <c r="F53" s="183" t="inlineStr">
-        <is>
-          <t>□行動援護</t>
-        </is>
-      </c>
-      <c r="G53" s="183" t="n"/>
-      <c r="H53" s="184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">□同行援護　　　</t>
-        </is>
-      </c>
-      <c r="I53" s="185" t="n"/>
-      <c r="J53" s="186" t="n"/>
-      <c r="K53" s="187" t="n"/>
-      <c r="L53" s="188" t="n"/>
-      <c r="M53" s="27" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="125">
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="A42:A50"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="B10:E10"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6389,8 +7143,8 @@
           <t>Ｈ○○年○○月○○日</t>
         </is>
       </c>
-      <c r="J2" s="141" t="n"/>
-      <c r="K2" s="139" t="n"/>
+      <c r="J2" s="187" t="n"/>
+      <c r="K2" s="185" t="n"/>
       <c r="L2" s="191" t="inlineStr">
         <is>
           <t>作成者</t>
@@ -6548,9 +7302,9 @@
           <t>本人(家族)の希望</t>
         </is>
       </c>
-      <c r="B6" s="141" t="n"/>
-      <c r="C6" s="141" t="n"/>
-      <c r="D6" s="139" t="n"/>
+      <c r="B6" s="187" t="n"/>
+      <c r="C6" s="187" t="n"/>
+      <c r="D6" s="185" t="n"/>
       <c r="E6" s="200" t="inlineStr">
         <is>
           <t>＊単身であるため，自分ができないところをサポートして欲しい。　
@@ -6559,14 +7313,14 @@
 ＊過度の干渉はしないで欲しい。</t>
         </is>
       </c>
-      <c r="F6" s="141" t="n"/>
-      <c r="G6" s="141" t="n"/>
-      <c r="H6" s="141" t="n"/>
-      <c r="I6" s="141" t="n"/>
-      <c r="J6" s="141" t="n"/>
-      <c r="K6" s="141" t="n"/>
-      <c r="L6" s="141" t="n"/>
-      <c r="M6" s="142" t="n"/>
+      <c r="F6" s="187" t="n"/>
+      <c r="G6" s="187" t="n"/>
+      <c r="H6" s="187" t="n"/>
+      <c r="I6" s="187" t="n"/>
+      <c r="J6" s="187" t="n"/>
+      <c r="K6" s="187" t="n"/>
+      <c r="L6" s="187" t="n"/>
+      <c r="M6" s="188" t="n"/>
       <c r="N6" s="37" t="n"/>
       <c r="O6" s="1" t="n"/>
       <c r="P6" s="1" t="n"/>
@@ -6616,22 +7370,22 @@
           <t>援　助　目　標</t>
         </is>
       </c>
-      <c r="B8" s="141" t="n"/>
-      <c r="C8" s="141" t="n"/>
-      <c r="D8" s="139" t="n"/>
+      <c r="B8" s="187" t="n"/>
+      <c r="C8" s="187" t="n"/>
+      <c r="D8" s="185" t="n"/>
       <c r="E8" s="201" t="inlineStr">
         <is>
           <t>＊自宅での生活を続けられるようにサポートする。</t>
         </is>
       </c>
-      <c r="F8" s="141" t="n"/>
-      <c r="G8" s="141" t="n"/>
-      <c r="H8" s="141" t="n"/>
-      <c r="I8" s="141" t="n"/>
-      <c r="J8" s="141" t="n"/>
-      <c r="K8" s="141" t="n"/>
-      <c r="L8" s="141" t="n"/>
-      <c r="M8" s="142" t="n"/>
+      <c r="F8" s="187" t="n"/>
+      <c r="G8" s="187" t="n"/>
+      <c r="H8" s="187" t="n"/>
+      <c r="I8" s="187" t="n"/>
+      <c r="J8" s="187" t="n"/>
+      <c r="K8" s="187" t="n"/>
+      <c r="L8" s="187" t="n"/>
+      <c r="M8" s="188" t="n"/>
       <c r="N8" s="28" t="n"/>
       <c r="O8" s="1" t="n"/>
       <c r="P8" s="1" t="n"/>
@@ -6729,8 +7483,8 @@
 　　　　　　　　　　　　　　　　　　時間</t>
         </is>
       </c>
-      <c r="E11" s="169" t="n"/>
-      <c r="F11" s="169" t="n"/>
+      <c r="E11" s="164" t="n"/>
+      <c r="F11" s="164" t="n"/>
       <c r="G11" s="204" t="n"/>
       <c r="H11" s="203" t="inlineStr">
         <is>
@@ -6738,8 +7492,8 @@
 　　　　　　　　　　　　　　　　　　時間</t>
         </is>
       </c>
-      <c r="I11" s="169" t="n"/>
-      <c r="J11" s="169" t="n"/>
+      <c r="I11" s="164" t="n"/>
+      <c r="J11" s="164" t="n"/>
       <c r="K11" s="204" t="n"/>
       <c r="L11" s="205" t="inlineStr">
         <is>
@@ -6804,7 +7558,7 @@
       <c r="J13" s="1" t="n"/>
       <c r="K13" s="1" t="n"/>
       <c r="L13" s="1" t="n"/>
-      <c r="M13" s="180" t="n"/>
+      <c r="M13" s="175" t="n"/>
       <c r="N13" s="1" t="n"/>
       <c r="O13" s="1" t="n"/>
       <c r="P13" s="1" t="n"/>
@@ -6978,15 +7732,15 @@
       <c r="A17" s="78" t="n"/>
       <c r="B17" s="88" t="n"/>
       <c r="C17" s="89" t="n"/>
-      <c r="D17" s="146" t="n"/>
+      <c r="D17" s="141" t="n"/>
       <c r="E17" s="229" t="n"/>
       <c r="F17" s="39" t="n"/>
-      <c r="G17" s="179" t="n"/>
-      <c r="H17" s="179" t="n"/>
+      <c r="G17" s="174" t="n"/>
+      <c r="H17" s="174" t="n"/>
       <c r="I17" s="229" t="n"/>
       <c r="J17" s="39" t="n"/>
-      <c r="K17" s="179" t="n"/>
-      <c r="L17" s="179" t="n"/>
+      <c r="K17" s="174" t="n"/>
+      <c r="L17" s="174" t="n"/>
       <c r="M17" s="230" t="n"/>
       <c r="N17" s="109" t="n"/>
       <c r="O17" s="1" t="n"/>
@@ -7099,12 +7853,12 @@
       <c r="D20" s="39" t="n"/>
       <c r="E20" s="229" t="n"/>
       <c r="F20" s="39" t="n"/>
-      <c r="G20" s="179" t="n"/>
-      <c r="H20" s="179" t="n"/>
+      <c r="G20" s="174" t="n"/>
+      <c r="H20" s="174" t="n"/>
       <c r="I20" s="229" t="n"/>
       <c r="J20" s="39" t="n"/>
       <c r="K20" s="238" t="n"/>
-      <c r="L20" s="179" t="n"/>
+      <c r="L20" s="174" t="n"/>
       <c r="M20" s="230" t="n"/>
       <c r="N20" s="109" t="n"/>
       <c r="O20" s="1" t="n"/>
@@ -7129,12 +7883,12 @@
       <c r="D21" s="39" t="n"/>
       <c r="E21" s="229" t="n"/>
       <c r="F21" s="39" t="n"/>
-      <c r="G21" s="179" t="n"/>
-      <c r="H21" s="179" t="n"/>
+      <c r="G21" s="174" t="n"/>
+      <c r="H21" s="174" t="n"/>
       <c r="I21" s="229" t="n"/>
       <c r="J21" s="39" t="n"/>
       <c r="K21" s="239" t="n"/>
-      <c r="L21" s="179" t="n"/>
+      <c r="L21" s="174" t="n"/>
       <c r="M21" s="230" t="n"/>
       <c r="N21" s="109" t="n"/>
       <c r="O21" s="1" t="n"/>
@@ -7161,12 +7915,12 @@
       <c r="D22" s="39" t="n"/>
       <c r="E22" s="229" t="n"/>
       <c r="F22" s="39" t="n"/>
-      <c r="G22" s="179" t="n"/>
-      <c r="H22" s="179" t="n"/>
+      <c r="G22" s="174" t="n"/>
+      <c r="H22" s="174" t="n"/>
       <c r="I22" s="229" t="n"/>
       <c r="J22" s="39" t="n"/>
       <c r="K22" s="239" t="n"/>
-      <c r="L22" s="179" t="n"/>
+      <c r="L22" s="174" t="n"/>
       <c r="M22" s="230" t="n"/>
       <c r="N22" s="109" t="n"/>
       <c r="O22" s="1" t="n"/>
@@ -7191,8 +7945,8 @@
       <c r="D23" s="39" t="n"/>
       <c r="E23" s="229" t="n"/>
       <c r="F23" s="39" t="n"/>
-      <c r="G23" s="179" t="n"/>
-      <c r="H23" s="179" t="n"/>
+      <c r="G23" s="174" t="n"/>
+      <c r="H23" s="174" t="n"/>
       <c r="I23" s="229" t="n"/>
       <c r="J23" s="39" t="n"/>
       <c r="K23" s="240" t="n"/>
@@ -7223,8 +7977,8 @@
       <c r="D24" s="39" t="n"/>
       <c r="E24" s="229" t="n"/>
       <c r="F24" s="39" t="n"/>
-      <c r="G24" s="179" t="n"/>
-      <c r="H24" s="179" t="n"/>
+      <c r="G24" s="174" t="n"/>
+      <c r="H24" s="174" t="n"/>
       <c r="I24" s="229" t="n"/>
       <c r="J24" s="39" t="n"/>
       <c r="K24" s="240" t="n"/>
@@ -7253,8 +8007,8 @@
       <c r="D25" s="39" t="n"/>
       <c r="E25" s="229" t="n"/>
       <c r="F25" s="39" t="n"/>
-      <c r="G25" s="179" t="n"/>
-      <c r="H25" s="179" t="n"/>
+      <c r="G25" s="174" t="n"/>
+      <c r="H25" s="174" t="n"/>
       <c r="I25" s="229" t="n"/>
       <c r="J25" s="39" t="n"/>
       <c r="K25" s="243" t="n"/>
@@ -7285,8 +8039,8 @@
       <c r="D26" s="39" t="n"/>
       <c r="E26" s="229" t="n"/>
       <c r="F26" s="39" t="n"/>
-      <c r="G26" s="179" t="n"/>
-      <c r="H26" s="179" t="n"/>
+      <c r="G26" s="174" t="n"/>
+      <c r="H26" s="174" t="n"/>
       <c r="I26" s="229" t="n"/>
       <c r="J26" s="39" t="n"/>
       <c r="K26" s="245" t="n"/>
@@ -7315,8 +8069,8 @@
       <c r="D27" s="39" t="n"/>
       <c r="E27" s="229" t="n"/>
       <c r="F27" s="39" t="n"/>
-      <c r="G27" s="179" t="n"/>
-      <c r="H27" s="179" t="n"/>
+      <c r="G27" s="174" t="n"/>
+      <c r="H27" s="174" t="n"/>
       <c r="I27" s="229" t="n"/>
       <c r="J27" s="39" t="n"/>
       <c r="K27" s="247" t="inlineStr">
@@ -7355,8 +8109,8 @@
       <c r="D28" s="39" t="n"/>
       <c r="E28" s="229" t="n"/>
       <c r="F28" s="39" t="n"/>
-      <c r="G28" s="179" t="n"/>
-      <c r="H28" s="179" t="n"/>
+      <c r="G28" s="174" t="n"/>
+      <c r="H28" s="174" t="n"/>
       <c r="I28" s="229" t="n"/>
       <c r="J28" s="39" t="n"/>
       <c r="K28" s="45" t="n"/>
@@ -7724,7 +8478,7 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="C39" s="97" t="n"/>
-      <c r="D39" s="146" t="n"/>
+      <c r="D39" s="141" t="n"/>
       <c r="E39" s="227" t="inlineStr">
         <is>
           <t>身体介護</t>
@@ -7738,7 +8492,7 @@
         </is>
       </c>
       <c r="J39" s="204" t="n"/>
-      <c r="K39" s="179" t="n"/>
+      <c r="K39" s="174" t="n"/>
       <c r="L39" s="39" t="n"/>
       <c r="M39" s="260" t="n"/>
       <c r="N39" s="109" t="n"/>
@@ -7761,13 +8515,13 @@
       <c r="A40" s="78" t="n"/>
       <c r="B40" s="88" t="n"/>
       <c r="C40" s="89" t="n"/>
-      <c r="D40" s="146" t="n"/>
+      <c r="D40" s="141" t="n"/>
       <c r="E40" s="229" t="n"/>
       <c r="F40" s="39" t="n"/>
       <c r="G40" s="39" t="n"/>
       <c r="I40" s="229" t="n"/>
       <c r="J40" s="39" t="n"/>
-      <c r="K40" s="179" t="n"/>
+      <c r="K40" s="174" t="n"/>
       <c r="L40" s="39" t="n"/>
       <c r="M40" s="278" t="n"/>
       <c r="N40" s="109" t="n"/>
@@ -8166,12 +8920,12 @@
       <c r="AB51" s="1" t="n"/>
     </row>
     <row r="52" ht="27" customHeight="1">
-      <c r="A52" s="143" t="inlineStr">
+      <c r="A52" s="138" t="inlineStr">
         <is>
           <t>サービス　1</t>
         </is>
       </c>
-      <c r="B52" s="144" t="inlineStr">
+      <c r="B52" s="139" t="inlineStr">
         <is>
           <t>援助項目</t>
         </is>
@@ -8179,7 +8933,7 @@
       <c r="C52" s="56" t="n"/>
       <c r="D52" s="56" t="n"/>
       <c r="E52" s="57" t="n"/>
-      <c r="F52" s="144" t="inlineStr">
+      <c r="F52" s="139" t="inlineStr">
         <is>
           <t>サービスの内容</t>
         </is>
@@ -8188,7 +8942,7 @@
       <c r="H52" s="56" t="n"/>
       <c r="I52" s="56" t="n"/>
       <c r="J52" s="57" t="n"/>
-      <c r="K52" s="144" t="inlineStr">
+      <c r="K52" s="139" t="inlineStr">
         <is>
           <t>留　意　事　項</t>
         </is>
@@ -8212,7 +8966,7 @@
       <c r="AB52" s="1" t="n"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="146" t="n"/>
+      <c r="A53" s="141" t="n"/>
       <c r="B53" s="307" t="inlineStr">
         <is>
           <t>移乗</t>
@@ -8226,18 +8980,18 @@
           <t>電動車イスの移乗</t>
         </is>
       </c>
-      <c r="G53" s="148" t="n"/>
-      <c r="H53" s="148" t="n"/>
-      <c r="I53" s="148" t="n"/>
-      <c r="J53" s="149" t="n"/>
+      <c r="G53" s="143" t="n"/>
+      <c r="H53" s="143" t="n"/>
+      <c r="I53" s="143" t="n"/>
+      <c r="J53" s="144" t="n"/>
       <c r="K53" s="311" t="inlineStr">
         <is>
           <t>朝は手足の緊張が強いので転倒しないように注意する</t>
         </is>
       </c>
-      <c r="L53" s="169" t="n"/>
+      <c r="L53" s="164" t="n"/>
       <c r="M53" s="206" t="n"/>
-      <c r="N53" s="155" t="n"/>
+      <c r="N53" s="312" t="n"/>
       <c r="O53" s="1" t="n"/>
       <c r="P53" s="1" t="n"/>
       <c r="Q53" s="1" t="n"/>
@@ -8254,16 +9008,16 @@
       <c r="AB53" s="1" t="n"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="146" t="n"/>
-      <c r="B54" s="312" t="inlineStr">
+      <c r="A54" s="141" t="n"/>
+      <c r="B54" s="313" t="inlineStr">
         <is>
           <t>更衣の介助</t>
         </is>
       </c>
-      <c r="C54" s="313" t="n"/>
-      <c r="D54" s="313" t="n"/>
-      <c r="E54" s="314" t="n"/>
-      <c r="F54" s="315" t="inlineStr">
+      <c r="C54" s="314" t="n"/>
+      <c r="D54" s="314" t="n"/>
+      <c r="E54" s="315" t="n"/>
+      <c r="F54" s="316" t="inlineStr">
         <is>
           <t>部屋着と外出着の着替え</t>
         </is>
@@ -8271,11 +9025,11 @@
       <c r="G54" s="41" t="n"/>
       <c r="H54" s="41" t="n"/>
       <c r="I54" s="41" t="n"/>
-      <c r="J54" s="157" t="n"/>
-      <c r="K54" s="316" t="n"/>
-      <c r="L54" s="317" t="n"/>
-      <c r="M54" s="318" t="n"/>
-      <c r="N54" s="155" t="n"/>
+      <c r="J54" s="151" t="n"/>
+      <c r="K54" s="317" t="n"/>
+      <c r="L54" s="318" t="n"/>
+      <c r="M54" s="319" t="n"/>
+      <c r="N54" s="312" t="n"/>
       <c r="O54" s="1" t="n"/>
       <c r="P54" s="1" t="n"/>
       <c r="Q54" s="1" t="n"/>
@@ -8292,16 +9046,16 @@
       <c r="AB54" s="1" t="n"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="146" t="n"/>
-      <c r="B55" s="312" t="inlineStr">
+      <c r="A55" s="141" t="n"/>
+      <c r="B55" s="313" t="inlineStr">
         <is>
           <t>身体整容</t>
         </is>
       </c>
-      <c r="C55" s="313" t="n"/>
-      <c r="D55" s="313" t="n"/>
-      <c r="E55" s="314" t="n"/>
-      <c r="F55" s="315" t="inlineStr">
+      <c r="C55" s="314" t="n"/>
+      <c r="D55" s="314" t="n"/>
+      <c r="E55" s="315" t="n"/>
+      <c r="F55" s="316" t="inlineStr">
         <is>
           <t>顔の清拭，ひげ剃り，歯磨き，整髪</t>
         </is>
@@ -8309,15 +9063,15 @@
       <c r="G55" s="41" t="n"/>
       <c r="H55" s="41" t="n"/>
       <c r="I55" s="41" t="n"/>
-      <c r="J55" s="157" t="n"/>
-      <c r="K55" s="319" t="inlineStr">
+      <c r="J55" s="151" t="n"/>
+      <c r="K55" s="320" t="inlineStr">
         <is>
           <t>ひげ剃りは電気シェーバー</t>
         </is>
       </c>
       <c r="L55" s="41" t="n"/>
       <c r="M55" s="42" t="n"/>
-      <c r="N55" s="155" t="n"/>
+      <c r="N55" s="312" t="n"/>
       <c r="O55" s="1" t="n"/>
       <c r="P55" s="1" t="n"/>
       <c r="Q55" s="1" t="n"/>
@@ -8334,16 +9088,16 @@
       <c r="AB55" s="1" t="n"/>
     </row>
     <row r="56" ht="30" customHeight="1">
-      <c r="A56" s="146" t="n"/>
-      <c r="B56" s="320" t="inlineStr">
+      <c r="A56" s="141" t="n"/>
+      <c r="B56" s="321" t="inlineStr">
         <is>
           <t>トイレ介助</t>
         </is>
       </c>
-      <c r="C56" s="321" t="n"/>
-      <c r="D56" s="321" t="n"/>
-      <c r="E56" s="322" t="n"/>
-      <c r="F56" s="315" t="inlineStr">
+      <c r="C56" s="322" t="n"/>
+      <c r="D56" s="322" t="n"/>
+      <c r="E56" s="323" t="n"/>
+      <c r="F56" s="316" t="inlineStr">
         <is>
           <t>トイレ移乗時に転倒しないようささえる</t>
         </is>
@@ -8351,11 +9105,11 @@
       <c r="G56" s="41" t="n"/>
       <c r="H56" s="41" t="n"/>
       <c r="I56" s="41" t="n"/>
-      <c r="J56" s="157" t="n"/>
-      <c r="K56" s="323" t="n"/>
-      <c r="L56" s="324" t="n"/>
-      <c r="M56" s="325" t="n"/>
-      <c r="N56" s="155" t="n"/>
+      <c r="J56" s="151" t="n"/>
+      <c r="K56" s="324" t="n"/>
+      <c r="L56" s="325" t="n"/>
+      <c r="M56" s="326" t="n"/>
+      <c r="N56" s="312" t="n"/>
       <c r="O56" s="1" t="n"/>
       <c r="P56" s="1" t="n"/>
       <c r="Q56" s="1" t="n"/>
@@ -8372,16 +9126,16 @@
       <c r="AB56" s="1" t="n"/>
     </row>
     <row r="57" ht="30.75" customHeight="1">
-      <c r="A57" s="146" t="n"/>
-      <c r="B57" s="320" t="inlineStr">
+      <c r="A57" s="141" t="n"/>
+      <c r="B57" s="321" t="inlineStr">
         <is>
           <t>食事介助</t>
         </is>
       </c>
-      <c r="C57" s="321" t="n"/>
-      <c r="D57" s="321" t="n"/>
-      <c r="E57" s="322" t="n"/>
-      <c r="F57" s="326" t="inlineStr">
+      <c r="C57" s="322" t="n"/>
+      <c r="D57" s="322" t="n"/>
+      <c r="E57" s="323" t="n"/>
+      <c r="F57" s="327" t="inlineStr">
         <is>
           <t>手の可動域が狭いため，摂食の介助を行う</t>
         </is>
@@ -8389,15 +9143,15 @@
       <c r="G57" s="41" t="n"/>
       <c r="H57" s="41" t="n"/>
       <c r="I57" s="41" t="n"/>
-      <c r="J57" s="157" t="n"/>
-      <c r="K57" s="323" t="inlineStr">
+      <c r="J57" s="151" t="n"/>
+      <c r="K57" s="324" t="inlineStr">
         <is>
           <t>軽度の嚥下障がいがあるので，食事の大きさとペースに注意する</t>
         </is>
       </c>
-      <c r="L57" s="324" t="n"/>
-      <c r="M57" s="325" t="n"/>
-      <c r="N57" s="155" t="n"/>
+      <c r="L57" s="325" t="n"/>
+      <c r="M57" s="326" t="n"/>
+      <c r="N57" s="312" t="n"/>
       <c r="O57" s="1" t="n"/>
       <c r="P57" s="1" t="n"/>
       <c r="Q57" s="1" t="n"/>
@@ -8414,32 +9168,32 @@
       <c r="AB57" s="1" t="n"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="146" t="n"/>
-      <c r="B58" s="320" t="inlineStr">
+      <c r="A58" s="141" t="n"/>
+      <c r="B58" s="321" t="inlineStr">
         <is>
           <t>全身清拭</t>
         </is>
       </c>
-      <c r="C58" s="321" t="n"/>
-      <c r="D58" s="321" t="n"/>
-      <c r="E58" s="322" t="n"/>
-      <c r="F58" s="327" t="inlineStr">
+      <c r="C58" s="322" t="n"/>
+      <c r="D58" s="322" t="n"/>
+      <c r="E58" s="323" t="n"/>
+      <c r="F58" s="328" t="inlineStr">
         <is>
           <t>生活介護で入浴しない日に清拭を行う</t>
         </is>
       </c>
-      <c r="G58" s="164" t="n"/>
-      <c r="H58" s="164" t="n"/>
-      <c r="I58" s="164" t="n"/>
-      <c r="J58" s="328" t="n"/>
-      <c r="K58" s="323" t="inlineStr">
+      <c r="G58" s="157" t="n"/>
+      <c r="H58" s="157" t="n"/>
+      <c r="I58" s="157" t="n"/>
+      <c r="J58" s="158" t="n"/>
+      <c r="K58" s="324" t="inlineStr">
         <is>
           <t>浴室は狭いため全身清拭</t>
         </is>
       </c>
-      <c r="L58" s="324" t="n"/>
-      <c r="M58" s="325" t="n"/>
-      <c r="N58" s="155" t="n"/>
+      <c r="L58" s="325" t="n"/>
+      <c r="M58" s="326" t="n"/>
+      <c r="N58" s="312" t="n"/>
       <c r="O58" s="1" t="n"/>
       <c r="P58" s="1" t="n"/>
       <c r="Q58" s="1" t="n"/>
@@ -8456,32 +9210,32 @@
       <c r="AB58" s="1" t="n"/>
     </row>
     <row r="59" ht="27" customHeight="1">
-      <c r="A59" s="167" t="inlineStr">
+      <c r="A59" s="162" t="inlineStr">
         <is>
           <t>種類</t>
         </is>
       </c>
-      <c r="B59" s="168" t="inlineStr">
+      <c r="B59" s="163" t="inlineStr">
         <is>
           <t xml:space="preserve">□身体介護　　　　　</t>
         </is>
       </c>
-      <c r="C59" s="169" t="n"/>
-      <c r="D59" s="169" t="n"/>
-      <c r="E59" s="169" t="n"/>
-      <c r="F59" s="170" t="inlineStr">
+      <c r="C59" s="164" t="n"/>
+      <c r="D59" s="164" t="n"/>
+      <c r="E59" s="164" t="n"/>
+      <c r="F59" s="165" t="inlineStr">
         <is>
           <t>□家事援助</t>
         </is>
       </c>
-      <c r="G59" s="170" t="n"/>
-      <c r="H59" s="170" t="n"/>
-      <c r="I59" s="171" t="inlineStr">
+      <c r="G59" s="165" t="n"/>
+      <c r="H59" s="165" t="n"/>
+      <c r="I59" s="166" t="inlineStr">
         <is>
           <t>□重度訪問介護</t>
         </is>
       </c>
-      <c r="J59" s="173" t="inlineStr">
+      <c r="J59" s="168" t="inlineStr">
         <is>
           <t>介護者種別</t>
         </is>
@@ -8491,7 +9245,7 @@
           <t>介護福祉士（主担当：Ａ）</t>
         </is>
       </c>
-      <c r="L59" s="169" t="n"/>
+      <c r="L59" s="164" t="n"/>
       <c r="M59" s="206" t="n"/>
       <c r="N59" s="27" t="n"/>
       <c r="O59" s="1" t="n"/>
@@ -8510,7 +9264,7 @@
       <c r="AB59" s="1" t="n"/>
     </row>
     <row r="60" ht="27" customHeight="1">
-      <c r="A60" s="146" t="n"/>
+      <c r="A60" s="141" t="n"/>
       <c r="B60" s="330" t="inlineStr">
         <is>
           <t>□通院介助(身体介護を伴う)</t>
@@ -8527,7 +9281,7 @@
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="1" t="n"/>
       <c r="I60" s="1" t="n"/>
-      <c r="J60" s="179" t="n"/>
+      <c r="J60" s="174" t="n"/>
       <c r="K60" s="229" t="n"/>
       <c r="M60" s="331" t="n"/>
       <c r="N60" s="27" t="n"/>
@@ -8547,28 +9301,28 @@
       <c r="AB60" s="1" t="n"/>
     </row>
     <row r="61" ht="27" customHeight="1">
-      <c r="A61" s="181" t="n"/>
-      <c r="B61" s="182" t="inlineStr">
+      <c r="A61" s="176" t="n"/>
+      <c r="B61" s="177" t="inlineStr">
         <is>
           <t>□通院等乗降介助</t>
         </is>
       </c>
-      <c r="C61" s="183" t="n"/>
-      <c r="D61" s="183" t="n"/>
-      <c r="E61" s="183" t="n"/>
-      <c r="F61" s="183" t="inlineStr">
+      <c r="C61" s="178" t="n"/>
+      <c r="D61" s="178" t="n"/>
+      <c r="E61" s="178" t="n"/>
+      <c r="F61" s="178" t="inlineStr">
         <is>
           <t>□行動援護</t>
         </is>
       </c>
-      <c r="G61" s="183" t="n"/>
-      <c r="H61" s="183" t="n"/>
+      <c r="G61" s="178" t="n"/>
+      <c r="H61" s="178" t="n"/>
       <c r="I61" s="332" t="inlineStr">
         <is>
           <t xml:space="preserve">□同行援護　　　</t>
         </is>
       </c>
-      <c r="J61" s="186" t="n"/>
+      <c r="J61" s="181" t="n"/>
       <c r="K61" s="25" t="n"/>
       <c r="L61" s="23" t="n"/>
       <c r="M61" s="303" t="n"/>
@@ -8619,12 +9373,12 @@
       <c r="AB62" s="1" t="n"/>
     </row>
     <row r="63" ht="27" customHeight="1">
-      <c r="A63" s="143" t="inlineStr">
+      <c r="A63" s="138" t="inlineStr">
         <is>
           <t>サービス　2</t>
         </is>
       </c>
-      <c r="B63" s="144" t="inlineStr">
+      <c r="B63" s="139" t="inlineStr">
         <is>
           <t>援助項目</t>
         </is>
@@ -8632,7 +9386,7 @@
       <c r="C63" s="56" t="n"/>
       <c r="D63" s="56" t="n"/>
       <c r="E63" s="57" t="n"/>
-      <c r="F63" s="144" t="inlineStr">
+      <c r="F63" s="139" t="inlineStr">
         <is>
           <t>サービスの内容</t>
         </is>
@@ -8641,7 +9395,7 @@
       <c r="H63" s="56" t="n"/>
       <c r="I63" s="56" t="n"/>
       <c r="J63" s="57" t="n"/>
-      <c r="K63" s="144" t="inlineStr">
+      <c r="K63" s="139" t="inlineStr">
         <is>
           <t>留　意　事　項</t>
         </is>
@@ -8665,7 +9419,7 @@
       <c r="AB63" s="1" t="n"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="146" t="n"/>
+      <c r="A64" s="141" t="n"/>
       <c r="B64" s="307" t="inlineStr">
         <is>
           <t>買い物</t>
@@ -8679,18 +9433,18 @@
           <t>Ｃスーパーで食材・日用品を購入</t>
         </is>
       </c>
-      <c r="G64" s="148" t="n"/>
-      <c r="H64" s="148" t="n"/>
-      <c r="I64" s="148" t="n"/>
-      <c r="J64" s="149" t="n"/>
+      <c r="G64" s="143" t="n"/>
+      <c r="H64" s="143" t="n"/>
+      <c r="I64" s="143" t="n"/>
+      <c r="J64" s="144" t="n"/>
       <c r="K64" s="311" t="inlineStr">
         <is>
           <t>金銭の授受は毎回きちんと確認すること</t>
         </is>
       </c>
-      <c r="L64" s="169" t="n"/>
+      <c r="L64" s="164" t="n"/>
       <c r="M64" s="206" t="n"/>
-      <c r="N64" s="155" t="n"/>
+      <c r="N64" s="312" t="n"/>
       <c r="O64" s="1" t="n"/>
       <c r="P64" s="1" t="n"/>
       <c r="Q64" s="1" t="n"/>
@@ -8707,16 +9461,16 @@
       <c r="AB64" s="1" t="n"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="146" t="n"/>
-      <c r="B65" s="312" t="inlineStr">
+      <c r="A65" s="141" t="n"/>
+      <c r="B65" s="313" t="inlineStr">
         <is>
           <t>調理</t>
         </is>
       </c>
-      <c r="C65" s="313" t="n"/>
-      <c r="D65" s="313" t="n"/>
-      <c r="E65" s="314" t="n"/>
-      <c r="F65" s="315" t="inlineStr">
+      <c r="C65" s="314" t="n"/>
+      <c r="D65" s="314" t="n"/>
+      <c r="E65" s="315" t="n"/>
+      <c r="F65" s="316" t="inlineStr">
         <is>
           <t>水曜日と日曜日にまとめて調理する</t>
         </is>
@@ -8724,11 +9478,11 @@
       <c r="G65" s="41" t="n"/>
       <c r="H65" s="41" t="n"/>
       <c r="I65" s="41" t="n"/>
-      <c r="J65" s="157" t="n"/>
-      <c r="K65" s="316" t="n"/>
-      <c r="L65" s="317" t="n"/>
-      <c r="M65" s="318" t="n"/>
-      <c r="N65" s="155" t="n"/>
+      <c r="J65" s="151" t="n"/>
+      <c r="K65" s="317" t="n"/>
+      <c r="L65" s="318" t="n"/>
+      <c r="M65" s="319" t="n"/>
+      <c r="N65" s="312" t="n"/>
       <c r="O65" s="1" t="n"/>
       <c r="P65" s="1" t="n"/>
       <c r="Q65" s="1" t="n"/>
@@ -8745,16 +9499,16 @@
       <c r="AB65" s="1" t="n"/>
     </row>
     <row r="66" ht="27.75" customHeight="1">
-      <c r="A66" s="146" t="n"/>
-      <c r="B66" s="312" t="inlineStr">
+      <c r="A66" s="141" t="n"/>
+      <c r="B66" s="313" t="inlineStr">
         <is>
           <t>洗濯</t>
         </is>
       </c>
-      <c r="C66" s="313" t="n"/>
-      <c r="D66" s="313" t="n"/>
-      <c r="E66" s="314" t="n"/>
-      <c r="F66" s="315" t="inlineStr">
+      <c r="C66" s="314" t="n"/>
+      <c r="D66" s="314" t="n"/>
+      <c r="E66" s="315" t="n"/>
+      <c r="F66" s="316" t="inlineStr">
         <is>
           <t>日曜日にまとめて洗濯する</t>
         </is>
@@ -8762,15 +9516,15 @@
       <c r="G66" s="41" t="n"/>
       <c r="H66" s="41" t="n"/>
       <c r="I66" s="41" t="n"/>
-      <c r="J66" s="157" t="n"/>
-      <c r="K66" s="319" t="inlineStr">
+      <c r="J66" s="151" t="n"/>
+      <c r="K66" s="320" t="inlineStr">
         <is>
           <t>乾燥機がないので天気が悪い時は近所のコインランドリーで洗濯</t>
         </is>
       </c>
       <c r="L66" s="41" t="n"/>
       <c r="M66" s="42" t="n"/>
-      <c r="N66" s="155" t="n"/>
+      <c r="N66" s="312" t="n"/>
       <c r="O66" s="1" t="n"/>
       <c r="P66" s="1" t="n"/>
       <c r="Q66" s="1" t="n"/>
@@ -8787,28 +9541,28 @@
       <c r="AB66" s="1" t="n"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="146" t="n"/>
-      <c r="B67" s="320" t="inlineStr">
+      <c r="A67" s="141" t="n"/>
+      <c r="B67" s="321" t="inlineStr">
         <is>
           <t>掃除</t>
         </is>
       </c>
-      <c r="C67" s="321" t="n"/>
-      <c r="D67" s="321" t="n"/>
-      <c r="E67" s="322" t="n"/>
-      <c r="F67" s="327" t="inlineStr">
+      <c r="C67" s="322" t="n"/>
+      <c r="D67" s="322" t="n"/>
+      <c r="E67" s="323" t="n"/>
+      <c r="F67" s="328" t="inlineStr">
         <is>
           <t>日曜日に掃除する</t>
         </is>
       </c>
-      <c r="G67" s="164" t="n"/>
-      <c r="H67" s="164" t="n"/>
-      <c r="I67" s="164" t="n"/>
-      <c r="J67" s="328" t="n"/>
-      <c r="K67" s="323" t="n"/>
-      <c r="L67" s="324" t="n"/>
-      <c r="M67" s="325" t="n"/>
-      <c r="N67" s="155" t="n"/>
+      <c r="G67" s="157" t="n"/>
+      <c r="H67" s="157" t="n"/>
+      <c r="I67" s="157" t="n"/>
+      <c r="J67" s="158" t="n"/>
+      <c r="K67" s="324" t="n"/>
+      <c r="L67" s="325" t="n"/>
+      <c r="M67" s="326" t="n"/>
+      <c r="N67" s="312" t="n"/>
       <c r="O67" s="1" t="n"/>
       <c r="P67" s="1" t="n"/>
       <c r="Q67" s="1" t="n"/>
@@ -8825,32 +9579,32 @@
       <c r="AB67" s="1" t="n"/>
     </row>
     <row r="68" ht="27" customHeight="1">
-      <c r="A68" s="167" t="inlineStr">
+      <c r="A68" s="162" t="inlineStr">
         <is>
           <t>種類</t>
         </is>
       </c>
-      <c r="B68" s="168" t="inlineStr">
+      <c r="B68" s="163" t="inlineStr">
         <is>
           <t xml:space="preserve">□身体介護　　　　　</t>
         </is>
       </c>
-      <c r="C68" s="169" t="n"/>
-      <c r="D68" s="169" t="n"/>
-      <c r="E68" s="169" t="n"/>
-      <c r="F68" s="170" t="inlineStr">
+      <c r="C68" s="164" t="n"/>
+      <c r="D68" s="164" t="n"/>
+      <c r="E68" s="164" t="n"/>
+      <c r="F68" s="165" t="inlineStr">
         <is>
           <t>■家事援助</t>
         </is>
       </c>
-      <c r="G68" s="170" t="n"/>
-      <c r="H68" s="170" t="n"/>
-      <c r="I68" s="171" t="inlineStr">
+      <c r="G68" s="165" t="n"/>
+      <c r="H68" s="165" t="n"/>
+      <c r="I68" s="166" t="inlineStr">
         <is>
           <t>□重度訪問介護</t>
         </is>
       </c>
-      <c r="J68" s="173" t="inlineStr">
+      <c r="J68" s="168" t="inlineStr">
         <is>
           <t>介護者種別</t>
         </is>
@@ -8860,7 +9614,7 @@
           <t>介護福祉士</t>
         </is>
       </c>
-      <c r="L68" s="169" t="n"/>
+      <c r="L68" s="164" t="n"/>
       <c r="M68" s="206" t="n"/>
       <c r="N68" s="27" t="n"/>
       <c r="O68" s="1" t="n"/>
@@ -8879,7 +9633,7 @@
       <c r="AB68" s="1" t="n"/>
     </row>
     <row r="69" ht="27" customHeight="1">
-      <c r="A69" s="146" t="n"/>
+      <c r="A69" s="141" t="n"/>
       <c r="B69" s="330" t="inlineStr">
         <is>
           <t>□通院介助(身体介護を伴う)</t>
@@ -8896,7 +9650,7 @@
       <c r="G69" s="1" t="n"/>
       <c r="H69" s="1" t="n"/>
       <c r="I69" s="1" t="n"/>
-      <c r="J69" s="179" t="n"/>
+      <c r="J69" s="174" t="n"/>
       <c r="K69" s="229" t="n"/>
       <c r="M69" s="331" t="n"/>
       <c r="N69" s="27" t="n"/>
@@ -8916,28 +9670,28 @@
       <c r="AB69" s="1" t="n"/>
     </row>
     <row r="70" ht="27" customHeight="1">
-      <c r="A70" s="181" t="n"/>
-      <c r="B70" s="182" t="inlineStr">
+      <c r="A70" s="176" t="n"/>
+      <c r="B70" s="177" t="inlineStr">
         <is>
           <t>□通院等乗降介助</t>
         </is>
       </c>
-      <c r="C70" s="183" t="n"/>
-      <c r="D70" s="183" t="n"/>
-      <c r="E70" s="183" t="n"/>
-      <c r="F70" s="183" t="inlineStr">
+      <c r="C70" s="178" t="n"/>
+      <c r="D70" s="178" t="n"/>
+      <c r="E70" s="178" t="n"/>
+      <c r="F70" s="178" t="inlineStr">
         <is>
           <t>□行動援護</t>
         </is>
       </c>
-      <c r="G70" s="183" t="n"/>
-      <c r="H70" s="183" t="n"/>
+      <c r="G70" s="178" t="n"/>
+      <c r="H70" s="178" t="n"/>
       <c r="I70" s="332" t="inlineStr">
         <is>
           <t xml:space="preserve">□同行援護　　　</t>
         </is>
       </c>
-      <c r="J70" s="186" t="n"/>
+      <c r="J70" s="181" t="n"/>
       <c r="K70" s="25" t="n"/>
       <c r="L70" s="23" t="n"/>
       <c r="M70" s="303" t="n"/>
@@ -8960,13 +9714,13 @@
   </sheetData>
   <mergeCells count="114">
     <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="B68:E68"/>
     <mergeCell ref="F54:J54"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="X11:Y11"/>
     <mergeCell ref="F63:J63"/>
+    <mergeCell ref="U13:W13"/>
     <mergeCell ref="G19:G29"/>
     <mergeCell ref="L19:L22"/>
-    <mergeCell ref="U13:W13"/>
     <mergeCell ref="K56:M56"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A68:A70"/>
@@ -8989,9 +9743,9 @@
     <mergeCell ref="U11:W11"/>
     <mergeCell ref="F64:J64"/>
     <mergeCell ref="K59:M61"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="F65:J65"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="I15:J15"/>
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="Q11:T11"/>
     <mergeCell ref="E14:F14"/>
@@ -9013,24 +9767,24 @@
     <mergeCell ref="K67:M67"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="I36:J38"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="E44:F44"/>
     <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="X13:Y13"/>
     <mergeCell ref="A59:A61"/>
+    <mergeCell ref="F55:J55"/>
     <mergeCell ref="I47:J47"/>
-    <mergeCell ref="F55:J55"/>
     <mergeCell ref="H38:H40"/>
     <mergeCell ref="K48:M48"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="L38:L41"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="B52:E52"/>
-    <mergeCell ref="L10:M10"/>
     <mergeCell ref="K38:K41"/>
+    <mergeCell ref="I39:J41"/>
     <mergeCell ref="J59:J61"/>
-    <mergeCell ref="I39:J41"/>
     <mergeCell ref="F58:J58"/>
     <mergeCell ref="F52:J52"/>
     <mergeCell ref="F67:J67"/>
@@ -9056,17 +9810,17 @@
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="K53:M53"/>
     <mergeCell ref="H19:H29"/>
+    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A52:A58"/>
-    <mergeCell ref="A6:D6"/>
     <mergeCell ref="Q8:T8"/>
     <mergeCell ref="L16:L18"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A10:C12"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A10:C12"/>
     <mergeCell ref="E36:F38"/>
+    <mergeCell ref="L27:L28"/>
     <mergeCell ref="F56:J56"/>
-    <mergeCell ref="L27:L28"/>
     <mergeCell ref="K68:M70"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="K55:M55"/>
@@ -9078,7 +9832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
